--- a/second_pass/wild_animals_calc_tseries.xlsx
+++ b/second_pass/wild_animals_calc_tseries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -38,13 +38,7 @@
     <t xml:space="preserve">aliveatanytime</t>
   </si>
   <si>
-    <t xml:space="preserve">WR_pop</t>
-  </si>
-  <si>
     <t xml:space="preserve">WR_utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC_pop</t>
   </si>
   <si>
     <t xml:space="preserve">NC_utility</t>
@@ -425,22 +419,16 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1970</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>0.327</v>
@@ -455,19 +443,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H2" t="n">
-        <v>400000000000</v>
+        <v>89237901662.4462</v>
       </c>
       <c r="I2" t="n">
-        <v>130800000000</v>
+        <v>-58361587687.2398</v>
       </c>
       <c r="J2" t="n">
-        <v>-261600000000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9964935170.83911</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-19929870341.6782</v>
+        <v>-4446249524.23996</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +457,10 @@
         <v>1971</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
         <v>0.327</v>
@@ -493,19 +475,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H3" t="n">
-        <v>397500000000</v>
+        <v>89177399273.1631</v>
       </c>
       <c r="I3" t="n">
-        <v>129982500000</v>
+        <v>-58322019124.6487</v>
       </c>
       <c r="J3" t="n">
-        <v>-259965000000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9902654326.02136</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-19805308652.0427</v>
+        <v>-4443235012.30552</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +489,10 @@
         <v>1972</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>0.327</v>
@@ -531,19 +507,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H4" t="n">
-        <v>395000000000</v>
+        <v>89113784156.2687</v>
       </c>
       <c r="I4" t="n">
-        <v>129165000000</v>
+        <v>-58280414838.1997</v>
       </c>
       <c r="J4" t="n">
-        <v>-258330000000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9840373481.20362</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-19680746962.4072</v>
+        <v>-4440065409.72684</v>
       </c>
     </row>
     <row r="5">
@@ -551,10 +521,10 @@
         <v>1973</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>0.327</v>
@@ -569,19 +539,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H5" t="n">
-        <v>392500000000</v>
+        <v>89046429251.9857</v>
       </c>
       <c r="I5" t="n">
-        <v>128347500000</v>
+        <v>-58236364730.7987</v>
       </c>
       <c r="J5" t="n">
-        <v>-256695000000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9778092636.38588</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-19556185272.7718</v>
+        <v>-4436709473.45375</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +553,10 @@
         <v>1974</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>0.327</v>
@@ -607,19 +571,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H6" t="n">
-        <v>390000000000</v>
+        <v>88966423856.492</v>
       </c>
       <c r="I6" t="n">
-        <v>127530000000</v>
+        <v>-58184041202.1458</v>
       </c>
       <c r="J6" t="n">
-        <v>-255060000000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9715811791.56813</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-19431623583.1363</v>
+        <v>-4432723230.55669</v>
       </c>
     </row>
     <row r="7">
@@ -627,10 +585,10 @@
         <v>1975</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>0.327</v>
@@ -645,19 +603,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H7" t="n">
-        <v>387500000000</v>
+        <v>88862828404.2981</v>
       </c>
       <c r="I7" t="n">
-        <v>126712500000</v>
+        <v>-58116289776.411</v>
       </c>
       <c r="J7" t="n">
-        <v>-253425000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9653530946.75039</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-19307061893.5008</v>
+        <v>-4427561620.73115</v>
       </c>
     </row>
     <row r="8">
@@ -665,10 +617,10 @@
         <v>1976</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>0.327</v>
@@ -683,19 +635,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H8" t="n">
-        <v>385000000000</v>
+        <v>88748021550.7661</v>
       </c>
       <c r="I8" t="n">
-        <v>125895000000</v>
+        <v>-58041206094.201</v>
       </c>
       <c r="J8" t="n">
-        <v>-251790000000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9591250101.93264</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-19182500203.8653</v>
+        <v>-4421841406.46808</v>
       </c>
     </row>
     <row r="9">
@@ -703,10 +649,10 @@
         <v>1977</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>0.327</v>
@@ -721,19 +667,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H9" t="n">
-        <v>382500000000</v>
+        <v>88624134048.9917</v>
       </c>
       <c r="I9" t="n">
-        <v>125077500000</v>
+        <v>-57960183668.0406</v>
       </c>
       <c r="J9" t="n">
-        <v>-250155000000</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9528969257.1149</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-19057938514.2298</v>
+        <v>-4415668751.84979</v>
       </c>
     </row>
     <row r="10">
@@ -741,10 +681,10 @@
         <v>1978</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
         <v>0.327</v>
@@ -759,19 +699,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H10" t="n">
-        <v>380000000000</v>
+        <v>88501811855.0656</v>
       </c>
       <c r="I10" t="n">
-        <v>124260000000</v>
+        <v>-57880184953.2129</v>
       </c>
       <c r="J10" t="n">
-        <v>-248520000000</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9466688412.29715</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-18933376824.5943</v>
+        <v>-4409574088.18764</v>
       </c>
     </row>
     <row r="11">
@@ -779,10 +713,10 @@
         <v>1979</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>0.327</v>
@@ -797,19 +731,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H11" t="n">
-        <v>377500000000</v>
+        <v>88379830271.913</v>
       </c>
       <c r="I11" t="n">
-        <v>123442500000</v>
+        <v>-57800408997.8311</v>
       </c>
       <c r="J11" t="n">
-        <v>-246885000000</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9404407567.47941</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-18808815134.9588</v>
+        <v>-4403496395.34688</v>
       </c>
     </row>
     <row r="12">
@@ -817,10 +745,10 @@
         <v>1980</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>0.327</v>
@@ -835,19 +763,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H12" t="n">
-        <v>375000000000</v>
+        <v>88265471035.512</v>
       </c>
       <c r="I12" t="n">
-        <v>122625000000</v>
+        <v>-57725618057.2249</v>
       </c>
       <c r="J12" t="n">
-        <v>-245250000000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9342126722.66166</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-18684253445.3233</v>
+        <v>-4397798483.46227</v>
       </c>
     </row>
     <row r="13">
@@ -855,10 +777,10 @@
         <v>1981</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>0.327</v>
@@ -873,19 +795,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H13" t="n">
-        <v>372500000000</v>
+        <v>88154037304.6441</v>
       </c>
       <c r="I13" t="n">
-        <v>121807500000</v>
+        <v>-57652740397.2372</v>
       </c>
       <c r="J13" t="n">
-        <v>-243615000000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9279845877.84392</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-18559691755.6878</v>
+        <v>-4392246333.94255</v>
       </c>
     </row>
     <row r="14">
@@ -893,10 +809,10 @@
         <v>1982</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>0.327</v>
@@ -911,19 +827,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H14" t="n">
-        <v>370000000000</v>
+        <v>88049707810.826</v>
       </c>
       <c r="I14" t="n">
-        <v>120990000000</v>
+        <v>-57584508908.2802</v>
       </c>
       <c r="J14" t="n">
-        <v>-241980000000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9217565033.02618</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-18435130066.0524</v>
+        <v>-4387048150.73104</v>
       </c>
     </row>
     <row r="15">
@@ -931,10 +841,10 @@
         <v>1983</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>0.327</v>
@@ -949,19 +859,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H15" t="n">
-        <v>367500000000</v>
+        <v>87954278980.7459</v>
       </c>
       <c r="I15" t="n">
-        <v>120172500000</v>
+        <v>-57522098453.4078</v>
       </c>
       <c r="J15" t="n">
-        <v>-240345000000</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9155284188.20843</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-18310568376.4169</v>
+        <v>-4382293440.20515</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +873,10 @@
         <v>1984</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>0.327</v>
@@ -987,19 +891,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H16" t="n">
-        <v>365000000000</v>
+        <v>87859155265.4687</v>
       </c>
       <c r="I16" t="n">
-        <v>119355000000</v>
+        <v>-57459887543.6166</v>
       </c>
       <c r="J16" t="n">
-        <v>-238710000000</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9093003343.39069</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-18186006686.7814</v>
+        <v>-4377553931.92542</v>
       </c>
     </row>
     <row r="17">
@@ -1007,10 +905,10 @@
         <v>1985</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>0.327</v>
@@ -1025,19 +923,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H17" t="n">
-        <v>362500000000</v>
+        <v>87772244708.405</v>
       </c>
       <c r="I17" t="n">
-        <v>118537500000</v>
+        <v>-57403048039.2969</v>
       </c>
       <c r="J17" t="n">
-        <v>-237075000000</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9030722498.57294</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-18061444997.1459</v>
+        <v>-4373223641.59141</v>
       </c>
     </row>
     <row r="18">
@@ -1045,10 +937,10 @@
         <v>1986</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
         <v>0.327</v>
@@ -1063,19 +955,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H18" t="n">
-        <v>360000000000</v>
+        <v>87688555180.5857</v>
       </c>
       <c r="I18" t="n">
-        <v>117720000000</v>
+        <v>-57348315088.103</v>
       </c>
       <c r="J18" t="n">
-        <v>-235440000000</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8968441653.7552</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-17936883307.5104</v>
+        <v>-4369053837.99542</v>
       </c>
     </row>
     <row r="19">
@@ -1083,10 +969,10 @@
         <v>1987</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
         <v>0.327</v>
@@ -1101,19 +987,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H19" t="n">
-        <v>357500000000</v>
+        <v>87606130640.9074</v>
       </c>
       <c r="I19" t="n">
-        <v>116902500000</v>
+        <v>-57294409439.1534</v>
       </c>
       <c r="J19" t="n">
-        <v>-233805000000</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8906160808.93745</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-17812321617.8749</v>
+        <v>-4364947062.02352</v>
       </c>
     </row>
     <row r="20">
@@ -1121,10 +1001,10 @@
         <v>1988</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
         <v>0.327</v>
@@ -1139,19 +1019,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H20" t="n">
-        <v>355000000000</v>
+        <v>87530195821.6049</v>
       </c>
       <c r="I20" t="n">
-        <v>116085000000</v>
+        <v>-57244748067.3296</v>
       </c>
       <c r="J20" t="n">
-        <v>-232170000000</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8843879964.11971</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-17687759928.2394</v>
+        <v>-4361163634.26573</v>
       </c>
     </row>
     <row r="21">
@@ -1159,10 +1033,10 @@
         <v>1989</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
         <v>0.327</v>
@@ -1177,19 +1051,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H21" t="n">
-        <v>352500000000</v>
+        <v>87455691320.8318</v>
       </c>
       <c r="I21" t="n">
-        <v>115267500000</v>
+        <v>-57196022123.824</v>
       </c>
       <c r="J21" t="n">
-        <v>-230535000000</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8781599119.30197</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-17563198238.6039</v>
+        <v>-4357451471.66503</v>
       </c>
     </row>
     <row r="22">
@@ -1197,10 +1065,10 @@
         <v>1990</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
         <v>0.327</v>
@@ -1215,19 +1083,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H22" t="n">
-        <v>350000000000</v>
+        <v>87384904357.3535</v>
       </c>
       <c r="I22" t="n">
-        <v>114450000000</v>
+        <v>-57149727449.7092</v>
       </c>
       <c r="J22" t="n">
-        <v>-228900000000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>8719318274.48422</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-17438636548.9684</v>
+        <v>-4353924534.15502</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1097,10 @@
         <v>1991</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
         <v>0.327</v>
@@ -1253,19 +1115,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H23" t="n">
-        <v>347500000000</v>
+        <v>87320487264.9076</v>
       </c>
       <c r="I23" t="n">
-        <v>113632500000</v>
+        <v>-57107598671.2496</v>
       </c>
       <c r="J23" t="n">
-        <v>-227265000000</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8657037429.66648</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-17314074859.333</v>
+        <v>-4350714973.40443</v>
       </c>
     </row>
     <row r="24">
@@ -1273,10 +1129,10 @@
         <v>1992</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
         <v>0.327</v>
@@ -1291,19 +1147,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H24" t="n">
-        <v>345000000000</v>
+        <v>87254636327.4598</v>
       </c>
       <c r="I24" t="n">
-        <v>112815000000</v>
+        <v>-57064532158.1587</v>
       </c>
       <c r="J24" t="n">
-        <v>-225630000000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8594756584.84873</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-17189513169.6975</v>
+        <v>-4347433971.7914</v>
       </c>
     </row>
     <row r="25">
@@ -1311,10 +1161,10 @@
         <v>1993</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
         <v>0.327</v>
@@ -1329,19 +1179,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H25" t="n">
-        <v>342500000000</v>
+        <v>87193590412.1505</v>
       </c>
       <c r="I25" t="n">
-        <v>111997500000</v>
+        <v>-57024608129.5465</v>
       </c>
       <c r="J25" t="n">
-        <v>-223995000000</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8532475740.03099</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-17064951480.062</v>
+        <v>-4344392378.84889</v>
       </c>
     </row>
     <row r="26">
@@ -1349,10 +1193,10 @@
         <v>1994</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
         <v>0.327</v>
@@ -1367,19 +1211,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H26" t="n">
-        <v>340000000000</v>
+        <v>87131257777.086</v>
       </c>
       <c r="I26" t="n">
-        <v>111180000000</v>
+        <v>-56983842586.2142</v>
       </c>
       <c r="J26" t="n">
-        <v>-222360000000</v>
-      </c>
-      <c r="K26" t="n">
-        <v>8470194895.21324</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-16940389790.4265</v>
+        <v>-4341286675.51166</v>
       </c>
     </row>
     <row r="27">
@@ -1387,10 +1225,10 @@
         <v>1995</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
         <v>0.327</v>
@@ -1405,19 +1243,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H27" t="n">
-        <v>337500000000</v>
+        <v>87072448513.0845</v>
       </c>
       <c r="I27" t="n">
-        <v>110362500000</v>
+        <v>-56945381327.5573</v>
       </c>
       <c r="J27" t="n">
-        <v>-220725000000</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8407914050.3955</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-16815828100.791</v>
+        <v>-4338356522.99557</v>
       </c>
     </row>
     <row r="28">
@@ -1425,10 +1257,10 @@
         <v>1996</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
         <v>0.327</v>
@@ -1443,19 +1275,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H28" t="n">
-        <v>335000000000</v>
+        <v>87012121609.9935</v>
       </c>
       <c r="I28" t="n">
-        <v>109545000000</v>
+        <v>-56905927532.9357</v>
       </c>
       <c r="J28" t="n">
-        <v>-219090000000</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8345633205.57775</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-16691266411.1555</v>
+        <v>-4335350754.60377</v>
       </c>
     </row>
     <row r="29">
@@ -1463,10 +1289,10 @@
         <v>1997</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
         <v>0.327</v>
@@ -1481,19 +1307,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H29" t="n">
-        <v>332500000000</v>
+        <v>86956457879.1018</v>
       </c>
       <c r="I29" t="n">
-        <v>108727500000</v>
+        <v>-56869523452.9326</v>
       </c>
       <c r="J29" t="n">
-        <v>-217455000000</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8283352360.76001</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-16566704721.52</v>
+        <v>-4332577327.25525</v>
       </c>
     </row>
     <row r="30">
@@ -1501,10 +1321,10 @@
         <v>1998</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
         <v>0.327</v>
@@ -1519,19 +1339,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H30" t="n">
-        <v>330000000000</v>
+        <v>86900056261.578</v>
       </c>
       <c r="I30" t="n">
-        <v>107910000000</v>
+        <v>-56832636795.072</v>
       </c>
       <c r="J30" t="n">
-        <v>-215820000000</v>
-      </c>
-      <c r="K30" t="n">
-        <v>8221071515.94227</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-16442143031.8845</v>
+        <v>-4329767134.94448</v>
       </c>
     </row>
     <row r="31">
@@ -1539,10 +1353,10 @@
         <v>1999</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>0.327</v>
@@ -1557,19 +1371,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H31" t="n">
-        <v>327500000000</v>
+        <v>86844396276.3816</v>
       </c>
       <c r="I31" t="n">
-        <v>107092500000</v>
+        <v>-56796235164.7536</v>
       </c>
       <c r="J31" t="n">
-        <v>-214185000000</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8158790671.12452</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-16317581342.249</v>
+        <v>-4326993894.22402</v>
       </c>
     </row>
     <row r="32">
@@ -1577,10 +1385,10 @@
         <v>2000</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
         <v>0.327</v>
@@ -1595,19 +1403,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H32" t="n">
-        <v>325000000000</v>
+        <v>86793807855.5196</v>
       </c>
       <c r="I32" t="n">
-        <v>106275000000</v>
+        <v>-56763150337.5098</v>
       </c>
       <c r="J32" t="n">
-        <v>-212550000000</v>
-      </c>
-      <c r="K32" t="n">
-        <v>8096509826.30678</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-16193019652.6136</v>
+        <v>-4324473342.5526</v>
       </c>
     </row>
     <row r="33">
@@ -1615,10 +1417,10 @@
         <v>2001</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
         <v>0.327</v>
@@ -1633,19 +1435,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H33" t="n">
-        <v>322500000000</v>
+        <v>86743965542.946</v>
       </c>
       <c r="I33" t="n">
-        <v>105457500000</v>
+        <v>-56730553465.0867</v>
       </c>
       <c r="J33" t="n">
-        <v>-210915000000</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8034228981.48903</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-16068457962.9781</v>
+        <v>-4321989965.48479</v>
       </c>
     </row>
     <row r="34">
@@ -1653,10 +1449,10 @@
         <v>2002</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
         <v>0.327</v>
@@ -1671,19 +1467,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H34" t="n">
-        <v>320000000000</v>
+        <v>86700000000</v>
       </c>
       <c r="I34" t="n">
-        <v>104640000000</v>
+        <v>-56701800000</v>
       </c>
       <c r="J34" t="n">
-        <v>-209280000000</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7971948136.67129</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-15943896273.3426</v>
+        <v>-4319799396.55875</v>
       </c>
     </row>
     <row r="35">
@@ -1691,10 +1481,10 @@
         <v>2003</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
         <v>0.327</v>
@@ -1709,19 +1499,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H35" t="n">
-        <v>317500000000</v>
+        <v>86658171835.8845</v>
       </c>
       <c r="I35" t="n">
-        <v>103822500000</v>
+        <v>-56674444380.6684</v>
       </c>
       <c r="J35" t="n">
-        <v>-207645000000</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7909667291.85354</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-15819334583.7071</v>
+        <v>-4317715321.84012</v>
       </c>
     </row>
     <row r="36">
@@ -1729,10 +1513,10 @@
         <v>2004</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
         <v>0.327</v>
@@ -1747,19 +1531,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H36" t="n">
-        <v>315000000000</v>
+        <v>86618773359.2552</v>
       </c>
       <c r="I36" t="n">
-        <v>103005000000</v>
+        <v>-56648677776.9529</v>
       </c>
       <c r="J36" t="n">
-        <v>-206010000000</v>
-      </c>
-      <c r="K36" t="n">
-        <v>7847386447.0358</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-15694772894.0716</v>
+        <v>-4315752305.51292</v>
       </c>
     </row>
     <row r="37">
@@ -1767,10 +1545,10 @@
         <v>2005</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
         <v>0.327</v>
@@ -1785,19 +1563,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H37" t="n">
-        <v>312500000000</v>
+        <v>86582993272.4984</v>
       </c>
       <c r="I37" t="n">
-        <v>102187500000</v>
+        <v>-56625277600.2139</v>
       </c>
       <c r="J37" t="n">
-        <v>-204375000000</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7785105602.21805</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-15570211204.4361</v>
+        <v>-4313969574.28823</v>
       </c>
     </row>
     <row r="38">
@@ -1805,10 +1577,10 @@
         <v>2006</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
         <v>0.327</v>
@@ -1823,19 +1595,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H38" t="n">
-        <v>310000000000</v>
+        <v>86546081590.4626</v>
       </c>
       <c r="I38" t="n">
-        <v>101370000000</v>
+        <v>-56601137360.1626</v>
       </c>
       <c r="J38" t="n">
-        <v>-202740000000</v>
-      </c>
-      <c r="K38" t="n">
-        <v>7722824757.40031</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-15445649514.8006</v>
+        <v>-4312130461.69556</v>
       </c>
     </row>
     <row r="39">
@@ -1843,10 +1609,10 @@
         <v>2007</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
         <v>0.327</v>
@@ -1861,19 +1627,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H39" t="n">
-        <v>307500000000</v>
+        <v>86514065056.1879</v>
       </c>
       <c r="I39" t="n">
-        <v>100552500000</v>
+        <v>-56580198546.7469</v>
       </c>
       <c r="J39" t="n">
-        <v>-201105000000</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7660543912.58257</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-15321087825.1651</v>
+        <v>-4310535248.25335</v>
       </c>
     </row>
     <row r="40">
@@ -1881,10 +1641,10 @@
         <v>2008</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
         <v>0.327</v>
@@ -1899,19 +1659,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H40" t="n">
-        <v>305000000000</v>
+        <v>86486508342.4116</v>
       </c>
       <c r="I40" t="n">
-        <v>99735000000</v>
+        <v>-56562176455.9372</v>
       </c>
       <c r="J40" t="n">
-        <v>-199470000000</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7598263067.76482</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-15196526135.5296</v>
+        <v>-4309162243.92184</v>
       </c>
     </row>
     <row r="41">
@@ -1919,10 +1673,10 @@
         <v>2009</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
         <v>0.327</v>
@@ -1937,19 +1691,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H41" t="n">
-        <v>302500000000</v>
+        <v>86459137015.5757</v>
       </c>
       <c r="I41" t="n">
-        <v>98917500000</v>
+        <v>-56544275608.1865</v>
       </c>
       <c r="J41" t="n">
-        <v>-197835000000</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7535982222.94708</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-15071964445.8942</v>
+        <v>-4307798476.43454</v>
       </c>
     </row>
     <row r="42">
@@ -1957,10 +1705,10 @@
         <v>2010</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
         <v>0.327</v>
@@ -1975,19 +1723,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H42" t="n">
-        <v>300000000000</v>
+        <v>86433936050.971</v>
       </c>
       <c r="I42" t="n">
-        <v>98100000000</v>
+        <v>-56527794177.3351</v>
       </c>
       <c r="J42" t="n">
-        <v>-196200000000</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7473701378.12933</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-14947402756.2587</v>
+        <v>-4306542846.5419</v>
       </c>
     </row>
     <row r="43">
@@ -1995,10 +1737,10 @@
         <v>2011</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
         <v>0.327</v>
@@ -2013,19 +1755,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H43" t="n">
-        <v>297500000000</v>
+        <v>86409173089.9433</v>
       </c>
       <c r="I43" t="n">
-        <v>97282500000</v>
+        <v>-56511599200.823</v>
       </c>
       <c r="J43" t="n">
-        <v>-194565000000</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7411420533.31159</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-14822841066.6232</v>
+        <v>-4305309040.0355</v>
       </c>
     </row>
     <row r="44">
@@ -2033,10 +1769,10 @@
         <v>2012</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
         <v>0.327</v>
@@ -2051,19 +1787,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H44" t="n">
-        <v>295000000000</v>
+        <v>86386528562.92</v>
       </c>
       <c r="I44" t="n">
-        <v>96465000000</v>
+        <v>-56496789680.1497</v>
       </c>
       <c r="J44" t="n">
-        <v>-192930000000</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7349139688.49384</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-14698279376.9877</v>
+        <v>-4304180783.81669</v>
       </c>
     </row>
     <row r="45">
@@ -2071,10 +1801,10 @@
         <v>2013</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
         <v>0.327</v>
@@ -2089,19 +1819,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H45" t="n">
-        <v>292500000000</v>
+        <v>86366650938.9221</v>
       </c>
       <c r="I45" t="n">
-        <v>95647500000</v>
+        <v>-56483789714.0551</v>
       </c>
       <c r="J45" t="n">
-        <v>-191295000000</v>
-      </c>
-      <c r="K45" t="n">
-        <v>7286858843.6761</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-14573717687.3522</v>
+        <v>-4303190387.64425</v>
       </c>
     </row>
     <row r="46">
@@ -2109,10 +1833,10 @@
         <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
         <v>0.327</v>
@@ -2127,19 +1851,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H46" t="n">
-        <v>290000000000</v>
+        <v>86347422731.901</v>
       </c>
       <c r="I46" t="n">
-        <v>94830000000</v>
+        <v>-56471214466.6633</v>
       </c>
       <c r="J46" t="n">
-        <v>-189660000000</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7224577998.85835</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-14449155997.7167</v>
+        <v>-4302232348.46216</v>
       </c>
     </row>
     <row r="47">
@@ -2147,10 +1865,10 @@
         <v>2015</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
         <v>0.327</v>
@@ -2165,19 +1883,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H47" t="n">
-        <v>287500000000</v>
+        <v>86334905567.0696</v>
       </c>
       <c r="I47" t="n">
-        <v>94012500000</v>
+        <v>-56463028240.8635</v>
       </c>
       <c r="J47" t="n">
-        <v>-188025000000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7162297154.04061</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-14324594308.0812</v>
+        <v>-4301608684.78183</v>
       </c>
     </row>
     <row r="48">
@@ -2185,10 +1897,10 @@
         <v>2016</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
         <v>0.327</v>
@@ -2203,19 +1915,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H48" t="n">
-        <v>285000000000</v>
+        <v>86334342245.0447</v>
       </c>
       <c r="I48" t="n">
-        <v>93195000000</v>
+        <v>-56462659828.2592</v>
       </c>
       <c r="J48" t="n">
-        <v>-186390000000</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7100016309.22287</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-14200032618.4457</v>
+        <v>-4301580617.44453</v>
       </c>
     </row>
     <row r="49">
@@ -2223,10 +1929,10 @@
         <v>2017</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
         <v>0.327</v>
@@ -2241,19 +1947,13 @@
         <v>0.0249123379270978</v>
       </c>
       <c r="H49" t="n">
-        <v>282500000000</v>
+        <v>86328346247.7782</v>
       </c>
       <c r="I49" t="n">
-        <v>92377500000</v>
+        <v>-56458738446.047</v>
       </c>
       <c r="J49" t="n">
-        <v>-184755000000</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7037735464.40512</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-14075470928.8102</v>
+        <v>-4301281868.82431</v>
       </c>
     </row>
     <row r="50">
@@ -2261,10 +1961,10 @@
         <v>1950</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
         <v>0.512</v>
@@ -2282,15 +1982,9 @@
         <v>100000000000</v>
       </c>
       <c r="I50" t="n">
-        <v>51200000000</v>
+        <v>-1433600000000</v>
       </c>
       <c r="J50" t="n">
-        <v>-1433600000000</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4075178426.56772</v>
-      </c>
-      <c r="L50" t="n">
         <v>-114104995943.896</v>
       </c>
     </row>
@@ -2299,10 +1993,10 @@
         <v>1951</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
         <v>0.512</v>
@@ -2320,15 +2014,9 @@
         <v>100100000000</v>
       </c>
       <c r="I51" t="n">
-        <v>51251200000</v>
+        <v>-1435033600000</v>
       </c>
       <c r="J51" t="n">
-        <v>-1435033600000</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4079253604.99429</v>
-      </c>
-      <c r="L51" t="n">
         <v>-114219100939.84</v>
       </c>
     </row>
@@ -2337,10 +2025,10 @@
         <v>1952</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
         <v>0.512</v>
@@ -2358,15 +2046,9 @@
         <v>100200000000</v>
       </c>
       <c r="I52" t="n">
-        <v>51302400000</v>
+        <v>-1436467200000</v>
       </c>
       <c r="J52" t="n">
-        <v>-1436467200000</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4083328783.42086</v>
-      </c>
-      <c r="L52" t="n">
         <v>-114333205935.784</v>
       </c>
     </row>
@@ -2375,10 +2057,10 @@
         <v>1953</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
         <v>0.512</v>
@@ -2396,15 +2078,9 @@
         <v>100300000000</v>
       </c>
       <c r="I53" t="n">
-        <v>51353600000</v>
+        <v>-1437900800000</v>
       </c>
       <c r="J53" t="n">
-        <v>-1437900800000</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4087403961.84743</v>
-      </c>
-      <c r="L53" t="n">
         <v>-114447310931.728</v>
       </c>
     </row>
@@ -2413,10 +2089,10 @@
         <v>1954</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
         <v>0.512</v>
@@ -2434,15 +2110,9 @@
         <v>100400000000</v>
       </c>
       <c r="I54" t="n">
-        <v>51404800000</v>
+        <v>-1439334400000</v>
       </c>
       <c r="J54" t="n">
-        <v>-1439334400000</v>
-      </c>
-      <c r="K54" t="n">
-        <v>4091479140.27399</v>
-      </c>
-      <c r="L54" t="n">
         <v>-114561415927.672</v>
       </c>
     </row>
@@ -2451,10 +2121,10 @@
         <v>1955</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
         <v>0.512</v>
@@ -2472,15 +2142,9 @@
         <v>100500000000</v>
       </c>
       <c r="I55" t="n">
-        <v>51456000000</v>
+        <v>-1440768000000</v>
       </c>
       <c r="J55" t="n">
-        <v>-1440768000000</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4095554318.70056</v>
-      </c>
-      <c r="L55" t="n">
         <v>-114675520923.616</v>
       </c>
     </row>
@@ -2489,10 +2153,10 @@
         <v>1956</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
         <v>0.512</v>
@@ -2510,15 +2174,9 @@
         <v>100600000000</v>
       </c>
       <c r="I56" t="n">
-        <v>51507200000</v>
+        <v>-1442201600000</v>
       </c>
       <c r="J56" t="n">
-        <v>-1442201600000</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4099629497.12713</v>
-      </c>
-      <c r="L56" t="n">
         <v>-114789625919.56</v>
       </c>
     </row>
@@ -2527,10 +2185,10 @@
         <v>1957</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
         <v>0.512</v>
@@ -2548,15 +2206,9 @@
         <v>100700000000</v>
       </c>
       <c r="I57" t="n">
-        <v>51558400000</v>
+        <v>-1443635200000</v>
       </c>
       <c r="J57" t="n">
-        <v>-1443635200000</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4103704675.5537</v>
-      </c>
-      <c r="L57" t="n">
         <v>-114903730915.504</v>
       </c>
     </row>
@@ -2565,10 +2217,10 @@
         <v>1958</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
         <v>0.512</v>
@@ -2586,15 +2238,9 @@
         <v>100800000000</v>
       </c>
       <c r="I58" t="n">
-        <v>51609600000</v>
+        <v>-1445068800000</v>
       </c>
       <c r="J58" t="n">
-        <v>-1445068800000</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4107779853.98027</v>
-      </c>
-      <c r="L58" t="n">
         <v>-115017835911.447</v>
       </c>
     </row>
@@ -2603,10 +2249,10 @@
         <v>1959</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
         <v>0.512</v>
@@ -2624,15 +2270,9 @@
         <v>100900000000</v>
       </c>
       <c r="I59" t="n">
-        <v>51660800000</v>
+        <v>-1446502400000</v>
       </c>
       <c r="J59" t="n">
-        <v>-1446502400000</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4111855032.40683</v>
-      </c>
-      <c r="L59" t="n">
         <v>-115131940907.391</v>
       </c>
     </row>
@@ -2641,10 +2281,10 @@
         <v>1960</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
         <v>0.512</v>
@@ -2662,15 +2302,9 @@
         <v>101000000000</v>
       </c>
       <c r="I60" t="n">
-        <v>51712000000</v>
+        <v>-1447936000000</v>
       </c>
       <c r="J60" t="n">
-        <v>-1447936000000</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4115930210.8334</v>
-      </c>
-      <c r="L60" t="n">
         <v>-115246045903.335</v>
       </c>
     </row>
@@ -2679,10 +2313,10 @@
         <v>1961</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
         <v>0.512</v>
@@ -2700,15 +2334,9 @@
         <v>101100000000</v>
       </c>
       <c r="I61" t="n">
-        <v>51763200000</v>
+        <v>-1449369600000</v>
       </c>
       <c r="J61" t="n">
-        <v>-1449369600000</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4120005389.25997</v>
-      </c>
-      <c r="L61" t="n">
         <v>-115360150899.279</v>
       </c>
     </row>
@@ -2717,10 +2345,10 @@
         <v>1962</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
         <v>0.512</v>
@@ -2738,15 +2366,9 @@
         <v>101200000000</v>
       </c>
       <c r="I62" t="n">
-        <v>51814400000</v>
+        <v>-1450803200000</v>
       </c>
       <c r="J62" t="n">
-        <v>-1450803200000</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4124080567.68654</v>
-      </c>
-      <c r="L62" t="n">
         <v>-115474255895.223</v>
       </c>
     </row>
@@ -2755,10 +2377,10 @@
         <v>1963</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
         <v>0.512</v>
@@ -2776,15 +2398,9 @@
         <v>101300000000</v>
       </c>
       <c r="I63" t="n">
-        <v>51865600000</v>
+        <v>-1452236800000</v>
       </c>
       <c r="J63" t="n">
-        <v>-1452236800000</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4128155746.1131</v>
-      </c>
-      <c r="L63" t="n">
         <v>-115588360891.167</v>
       </c>
     </row>
@@ -2793,10 +2409,10 @@
         <v>1964</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
         <v>0.512</v>
@@ -2814,15 +2430,9 @@
         <v>101400000000</v>
       </c>
       <c r="I64" t="n">
-        <v>51916800000</v>
+        <v>-1453670400000</v>
       </c>
       <c r="J64" t="n">
-        <v>-1453670400000</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4132230924.53967</v>
-      </c>
-      <c r="L64" t="n">
         <v>-115702465887.111</v>
       </c>
     </row>
@@ -2831,10 +2441,10 @@
         <v>1965</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
         <v>0.512</v>
@@ -2852,15 +2462,9 @@
         <v>101500000000</v>
       </c>
       <c r="I65" t="n">
-        <v>51968000000</v>
+        <v>-1455104000000</v>
       </c>
       <c r="J65" t="n">
-        <v>-1455104000000</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4136306102.96624</v>
-      </c>
-      <c r="L65" t="n">
         <v>-115816570883.055</v>
       </c>
     </row>
@@ -2869,10 +2473,10 @@
         <v>1966</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
         <v>0.512</v>
@@ -2890,15 +2494,9 @@
         <v>101600000000</v>
       </c>
       <c r="I66" t="n">
-        <v>52019200000</v>
+        <v>-1456537600000</v>
       </c>
       <c r="J66" t="n">
-        <v>-1456537600000</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4140381281.39281</v>
-      </c>
-      <c r="L66" t="n">
         <v>-115930675878.999</v>
       </c>
     </row>
@@ -2907,10 +2505,10 @@
         <v>1967</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
         <v>0.512</v>
@@ -2928,15 +2526,9 @@
         <v>101700000000</v>
       </c>
       <c r="I67" t="n">
-        <v>52070400000</v>
+        <v>-1457971200000</v>
       </c>
       <c r="J67" t="n">
-        <v>-1457971200000</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4144456459.81938</v>
-      </c>
-      <c r="L67" t="n">
         <v>-116044780874.943</v>
       </c>
     </row>
@@ -2945,10 +2537,10 @@
         <v>1968</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
         <v>0.512</v>
@@ -2966,15 +2558,9 @@
         <v>101800000000</v>
       </c>
       <c r="I68" t="n">
-        <v>52121600000</v>
+        <v>-1459404800000</v>
       </c>
       <c r="J68" t="n">
-        <v>-1459404800000</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4148531638.24594</v>
-      </c>
-      <c r="L68" t="n">
         <v>-116158885870.886</v>
       </c>
     </row>
@@ -2983,10 +2569,10 @@
         <v>1969</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
         <v>0.512</v>
@@ -3004,15 +2590,9 @@
         <v>101900000000</v>
       </c>
       <c r="I69" t="n">
-        <v>52172800000</v>
+        <v>-1460838400000</v>
       </c>
       <c r="J69" t="n">
-        <v>-1460838400000</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4152606816.67251</v>
-      </c>
-      <c r="L69" t="n">
         <v>-116272990866.83</v>
       </c>
     </row>
@@ -3021,10 +2601,10 @@
         <v>1970</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
         <v>0.512</v>
@@ -3042,15 +2622,9 @@
         <v>102000000000</v>
       </c>
       <c r="I70" t="n">
-        <v>52224000000</v>
+        <v>-1462272000000</v>
       </c>
       <c r="J70" t="n">
-        <v>-1462272000000</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4156681995.09908</v>
-      </c>
-      <c r="L70" t="n">
         <v>-116387095862.774</v>
       </c>
     </row>
@@ -3059,10 +2633,10 @@
         <v>1971</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
         <v>0.512</v>
@@ -3080,15 +2654,9 @@
         <v>102100000000</v>
       </c>
       <c r="I71" t="n">
-        <v>52275200000</v>
+        <v>-1463705600000</v>
       </c>
       <c r="J71" t="n">
-        <v>-1463705600000</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4160757173.52565</v>
-      </c>
-      <c r="L71" t="n">
         <v>-116501200858.718</v>
       </c>
     </row>
@@ -3097,10 +2665,10 @@
         <v>1972</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
         <v>0.512</v>
@@ -3118,15 +2686,9 @@
         <v>102200000000</v>
       </c>
       <c r="I72" t="n">
-        <v>52326400000</v>
+        <v>-1465139200000</v>
       </c>
       <c r="J72" t="n">
-        <v>-1465139200000</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4164832351.95221</v>
-      </c>
-      <c r="L72" t="n">
         <v>-116615305854.662</v>
       </c>
     </row>
@@ -3135,10 +2697,10 @@
         <v>1973</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
         <v>0.512</v>
@@ -3156,15 +2718,9 @@
         <v>102300000000</v>
       </c>
       <c r="I73" t="n">
-        <v>52377600000</v>
+        <v>-1466572800000</v>
       </c>
       <c r="J73" t="n">
-        <v>-1466572800000</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4168907530.37878</v>
-      </c>
-      <c r="L73" t="n">
         <v>-116729410850.606</v>
       </c>
     </row>
@@ -3173,10 +2729,10 @@
         <v>1974</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
         <v>0.512</v>
@@ -3194,15 +2750,9 @@
         <v>102400000000</v>
       </c>
       <c r="I74" t="n">
-        <v>52428800000</v>
+        <v>-1468006400000</v>
       </c>
       <c r="J74" t="n">
-        <v>-1468006400000</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4172982708.80535</v>
-      </c>
-      <c r="L74" t="n">
         <v>-116843515846.55</v>
       </c>
     </row>
@@ -3211,10 +2761,10 @@
         <v>1975</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
         <v>0.512</v>
@@ -3232,15 +2782,9 @@
         <v>102500000000</v>
       </c>
       <c r="I75" t="n">
-        <v>52480000000</v>
+        <v>-1469440000000</v>
       </c>
       <c r="J75" t="n">
-        <v>-1469440000000</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4177057887.23192</v>
-      </c>
-      <c r="L75" t="n">
         <v>-116957620842.494</v>
       </c>
     </row>
@@ -3249,10 +2793,10 @@
         <v>1976</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
         <v>0.512</v>
@@ -3270,15 +2814,9 @@
         <v>102600000000</v>
       </c>
       <c r="I76" t="n">
-        <v>52531200000</v>
+        <v>-1470873600000</v>
       </c>
       <c r="J76" t="n">
-        <v>-1470873600000</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4181133065.65848</v>
-      </c>
-      <c r="L76" t="n">
         <v>-117071725838.438</v>
       </c>
     </row>
@@ -3287,10 +2825,10 @@
         <v>1977</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
         <v>0.512</v>
@@ -3308,15 +2846,9 @@
         <v>102700000000</v>
       </c>
       <c r="I77" t="n">
-        <v>52582400000</v>
+        <v>-1472307200000</v>
       </c>
       <c r="J77" t="n">
-        <v>-1472307200000</v>
-      </c>
-      <c r="K77" t="n">
-        <v>4185208244.08505</v>
-      </c>
-      <c r="L77" t="n">
         <v>-117185830834.381</v>
       </c>
     </row>
@@ -3325,10 +2857,10 @@
         <v>1978</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
         <v>0.512</v>
@@ -3346,15 +2878,9 @@
         <v>102800000000</v>
       </c>
       <c r="I78" t="n">
-        <v>52633600000</v>
+        <v>-1473740800000</v>
       </c>
       <c r="J78" t="n">
-        <v>-1473740800000</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4189283422.51162</v>
-      </c>
-      <c r="L78" t="n">
         <v>-117299935830.325</v>
       </c>
     </row>
@@ -3363,10 +2889,10 @@
         <v>1979</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
         <v>0.512</v>
@@ -3384,15 +2910,9 @@
         <v>102900000000</v>
       </c>
       <c r="I79" t="n">
-        <v>52684800000</v>
+        <v>-1475174400000</v>
       </c>
       <c r="J79" t="n">
-        <v>-1475174400000</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4193358600.93819</v>
-      </c>
-      <c r="L79" t="n">
         <v>-117414040826.269</v>
       </c>
     </row>
@@ -3401,10 +2921,10 @@
         <v>1980</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
         <v>0.512</v>
@@ -3422,15 +2942,9 @@
         <v>103000000000</v>
       </c>
       <c r="I80" t="n">
-        <v>52736000000</v>
+        <v>-1476608000000</v>
       </c>
       <c r="J80" t="n">
-        <v>-1476608000000</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4197433779.36476</v>
-      </c>
-      <c r="L80" t="n">
         <v>-117528145822.213</v>
       </c>
     </row>
@@ -3439,10 +2953,10 @@
         <v>1981</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
         <v>0.512</v>
@@ -3460,15 +2974,9 @@
         <v>103100000000</v>
       </c>
       <c r="I81" t="n">
-        <v>52787200000</v>
+        <v>-1478041600000</v>
       </c>
       <c r="J81" t="n">
-        <v>-1478041600000</v>
-      </c>
-      <c r="K81" t="n">
-        <v>4201508957.79132</v>
-      </c>
-      <c r="L81" t="n">
         <v>-117642250818.157</v>
       </c>
     </row>
@@ -3477,10 +2985,10 @@
         <v>1982</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
         <v>0.512</v>
@@ -3498,15 +3006,9 @@
         <v>103200000000</v>
       </c>
       <c r="I82" t="n">
-        <v>52838400000</v>
+        <v>-1479475200000</v>
       </c>
       <c r="J82" t="n">
-        <v>-1479475200000</v>
-      </c>
-      <c r="K82" t="n">
-        <v>4205584136.21789</v>
-      </c>
-      <c r="L82" t="n">
         <v>-117756355814.101</v>
       </c>
     </row>
@@ -3515,10 +3017,10 @@
         <v>1983</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
         <v>0.512</v>
@@ -3536,15 +3038,9 @@
         <v>103300000000</v>
       </c>
       <c r="I83" t="n">
-        <v>52889600000</v>
+        <v>-1480908800000</v>
       </c>
       <c r="J83" t="n">
-        <v>-1480908800000</v>
-      </c>
-      <c r="K83" t="n">
-        <v>4209659314.64446</v>
-      </c>
-      <c r="L83" t="n">
         <v>-117870460810.045</v>
       </c>
     </row>
@@ -3553,10 +3049,10 @@
         <v>1984</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
         <v>0.512</v>
@@ -3574,15 +3070,9 @@
         <v>103400000000</v>
       </c>
       <c r="I84" t="n">
-        <v>52940800000</v>
+        <v>-1482342400000</v>
       </c>
       <c r="J84" t="n">
-        <v>-1482342400000</v>
-      </c>
-      <c r="K84" t="n">
-        <v>4213734493.07103</v>
-      </c>
-      <c r="L84" t="n">
         <v>-117984565805.989</v>
       </c>
     </row>
@@ -3591,10 +3081,10 @@
         <v>1985</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
         <v>0.512</v>
@@ -3612,15 +3102,9 @@
         <v>103500000000</v>
       </c>
       <c r="I85" t="n">
-        <v>52992000000</v>
+        <v>-1483776000000</v>
       </c>
       <c r="J85" t="n">
-        <v>-1483776000000</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4217809671.49759</v>
-      </c>
-      <c r="L85" t="n">
         <v>-118098670801.933</v>
       </c>
     </row>
@@ -3629,10 +3113,10 @@
         <v>1986</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
         <v>0.512</v>
@@ -3650,15 +3134,9 @@
         <v>103600000000</v>
       </c>
       <c r="I86" t="n">
-        <v>53043200000</v>
+        <v>-1485209600000</v>
       </c>
       <c r="J86" t="n">
-        <v>-1485209600000</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4221884849.92416</v>
-      </c>
-      <c r="L86" t="n">
         <v>-118212775797.877</v>
       </c>
     </row>
@@ -3667,10 +3145,10 @@
         <v>1987</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
         <v>0.512</v>
@@ -3688,15 +3166,9 @@
         <v>103700000000</v>
       </c>
       <c r="I87" t="n">
-        <v>53094400000</v>
+        <v>-1486643200000</v>
       </c>
       <c r="J87" t="n">
-        <v>-1486643200000</v>
-      </c>
-      <c r="K87" t="n">
-        <v>4225960028.35073</v>
-      </c>
-      <c r="L87" t="n">
         <v>-118326880793.82</v>
       </c>
     </row>
@@ -3705,10 +3177,10 @@
         <v>1988</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
         <v>0.512</v>
@@ -3726,15 +3198,9 @@
         <v>103800000000</v>
       </c>
       <c r="I88" t="n">
-        <v>53145600000</v>
+        <v>-1488076800000</v>
       </c>
       <c r="J88" t="n">
-        <v>-1488076800000</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4230035206.7773</v>
-      </c>
-      <c r="L88" t="n">
         <v>-118440985789.764</v>
       </c>
     </row>
@@ -3743,10 +3209,10 @@
         <v>1989</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
         <v>0.512</v>
@@ -3764,15 +3230,9 @@
         <v>103900000000</v>
       </c>
       <c r="I89" t="n">
-        <v>53196800000</v>
+        <v>-1489510400000</v>
       </c>
       <c r="J89" t="n">
-        <v>-1489510400000</v>
-      </c>
-      <c r="K89" t="n">
-        <v>4234110385.20387</v>
-      </c>
-      <c r="L89" t="n">
         <v>-118555090785.708</v>
       </c>
     </row>
@@ -3781,10 +3241,10 @@
         <v>1990</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
         <v>0.512</v>
@@ -3802,15 +3262,9 @@
         <v>104000000000</v>
       </c>
       <c r="I90" t="n">
-        <v>53248000000</v>
+        <v>-1490944000000</v>
       </c>
       <c r="J90" t="n">
-        <v>-1490944000000</v>
-      </c>
-      <c r="K90" t="n">
-        <v>4238185563.63043</v>
-      </c>
-      <c r="L90" t="n">
         <v>-118669195781.652</v>
       </c>
     </row>
@@ -3819,10 +3273,10 @@
         <v>1991</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
         <v>0.512</v>
@@ -3840,15 +3294,9 @@
         <v>104100000000</v>
       </c>
       <c r="I91" t="n">
-        <v>53299200000</v>
+        <v>-1492377600000</v>
       </c>
       <c r="J91" t="n">
-        <v>-1492377600000</v>
-      </c>
-      <c r="K91" t="n">
-        <v>4242260742.057</v>
-      </c>
-      <c r="L91" t="n">
         <v>-118783300777.596</v>
       </c>
     </row>
@@ -3857,10 +3305,10 @@
         <v>1992</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
         <v>0.512</v>
@@ -3878,15 +3326,9 @@
         <v>104200000000</v>
       </c>
       <c r="I92" t="n">
-        <v>53350400000</v>
+        <v>-1493811200000</v>
       </c>
       <c r="J92" t="n">
-        <v>-1493811200000</v>
-      </c>
-      <c r="K92" t="n">
-        <v>4246335920.48357</v>
-      </c>
-      <c r="L92" t="n">
         <v>-118897405773.54</v>
       </c>
     </row>
@@ -3895,10 +3337,10 @@
         <v>1993</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93" t="n">
         <v>0.512</v>
@@ -3916,15 +3358,9 @@
         <v>104300000000</v>
       </c>
       <c r="I93" t="n">
-        <v>53401600000</v>
+        <v>-1495244800000</v>
       </c>
       <c r="J93" t="n">
-        <v>-1495244800000</v>
-      </c>
-      <c r="K93" t="n">
-        <v>4250411098.91014</v>
-      </c>
-      <c r="L93" t="n">
         <v>-119011510769.484</v>
       </c>
     </row>
@@ -3933,10 +3369,10 @@
         <v>1994</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94" t="n">
         <v>0.512</v>
@@ -3954,15 +3390,9 @@
         <v>104400000000</v>
       </c>
       <c r="I94" t="n">
-        <v>53452800000</v>
+        <v>-1496678400000</v>
       </c>
       <c r="J94" t="n">
-        <v>-1496678400000</v>
-      </c>
-      <c r="K94" t="n">
-        <v>4254486277.3367</v>
-      </c>
-      <c r="L94" t="n">
         <v>-119125615765.428</v>
       </c>
     </row>
@@ -3971,10 +3401,10 @@
         <v>1995</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
         <v>0.512</v>
@@ -3992,15 +3422,9 @@
         <v>104500000000</v>
       </c>
       <c r="I95" t="n">
-        <v>53504000000</v>
+        <v>-1498112000000</v>
       </c>
       <c r="J95" t="n">
-        <v>-1498112000000</v>
-      </c>
-      <c r="K95" t="n">
-        <v>4258561455.76327</v>
-      </c>
-      <c r="L95" t="n">
         <v>-119239720761.372</v>
       </c>
     </row>
@@ -4009,10 +3433,10 @@
         <v>1996</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" t="n">
         <v>0.512</v>
@@ -4030,15 +3454,9 @@
         <v>104600000000</v>
       </c>
       <c r="I96" t="n">
-        <v>53555200000</v>
+        <v>-1499545600000</v>
       </c>
       <c r="J96" t="n">
-        <v>-1499545600000</v>
-      </c>
-      <c r="K96" t="n">
-        <v>4262636634.18984</v>
-      </c>
-      <c r="L96" t="n">
         <v>-119353825757.315</v>
       </c>
     </row>
@@ -4047,10 +3465,10 @@
         <v>1997</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D97" t="n">
         <v>0.512</v>
@@ -4068,15 +3486,9 @@
         <v>104700000000</v>
       </c>
       <c r="I97" t="n">
-        <v>53606400000</v>
+        <v>-1500979200000</v>
       </c>
       <c r="J97" t="n">
-        <v>-1500979200000</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4266711812.61641</v>
-      </c>
-      <c r="L97" t="n">
         <v>-119467930753.259</v>
       </c>
     </row>
@@ -4085,10 +3497,10 @@
         <v>1998</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
         <v>0.512</v>
@@ -4106,15 +3518,9 @@
         <v>104800000000</v>
       </c>
       <c r="I98" t="n">
-        <v>53657600000</v>
+        <v>-1502412800000</v>
       </c>
       <c r="J98" t="n">
-        <v>-1502412800000</v>
-      </c>
-      <c r="K98" t="n">
-        <v>4270786991.04297</v>
-      </c>
-      <c r="L98" t="n">
         <v>-119582035749.203</v>
       </c>
     </row>
@@ -4123,10 +3529,10 @@
         <v>1999</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99" t="n">
         <v>0.512</v>
@@ -4144,15 +3550,9 @@
         <v>104900000000</v>
       </c>
       <c r="I99" t="n">
-        <v>53708800000</v>
+        <v>-1503846400000</v>
       </c>
       <c r="J99" t="n">
-        <v>-1503846400000</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4274862169.46954</v>
-      </c>
-      <c r="L99" t="n">
         <v>-119696140745.147</v>
       </c>
     </row>
@@ -4161,10 +3561,10 @@
         <v>2000</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
         <v>0.512</v>
@@ -4182,15 +3582,9 @@
         <v>105000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>53760000000</v>
+        <v>-1505280000000</v>
       </c>
       <c r="J100" t="n">
-        <v>-1505280000000</v>
-      </c>
-      <c r="K100" t="n">
-        <v>4278937347.89611</v>
-      </c>
-      <c r="L100" t="n">
         <v>-119810245741.091</v>
       </c>
     </row>
@@ -4199,10 +3593,10 @@
         <v>2001</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
         <v>0.512</v>
@@ -4220,15 +3614,9 @@
         <v>105100000000</v>
       </c>
       <c r="I101" t="n">
-        <v>53811200000</v>
+        <v>-1506713600000</v>
       </c>
       <c r="J101" t="n">
-        <v>-1506713600000</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4283012526.32268</v>
-      </c>
-      <c r="L101" t="n">
         <v>-119924350737.035</v>
       </c>
     </row>
@@ -4237,10 +3625,10 @@
         <v>2002</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
         <v>0.512</v>
@@ -4258,15 +3646,9 @@
         <v>105200000000</v>
       </c>
       <c r="I102" t="n">
-        <v>53862400000</v>
+        <v>-1508147200000</v>
       </c>
       <c r="J102" t="n">
-        <v>-1508147200000</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4287087704.74925</v>
-      </c>
-      <c r="L102" t="n">
         <v>-120038455732.979</v>
       </c>
     </row>
@@ -4275,10 +3657,10 @@
         <v>2003</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
         <v>0.512</v>
@@ -4296,15 +3678,9 @@
         <v>105300000000</v>
       </c>
       <c r="I103" t="n">
-        <v>53913600000</v>
+        <v>-1509580800000</v>
       </c>
       <c r="J103" t="n">
-        <v>-1509580800000</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4291162883.17581</v>
-      </c>
-      <c r="L103" t="n">
         <v>-120152560728.923</v>
       </c>
     </row>
@@ -4313,10 +3689,10 @@
         <v>2004</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
         <v>0.512</v>
@@ -4334,15 +3710,9 @@
         <v>105400000000</v>
       </c>
       <c r="I104" t="n">
-        <v>53964800000</v>
+        <v>-1511014400000</v>
       </c>
       <c r="J104" t="n">
-        <v>-1511014400000</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4295238061.60238</v>
-      </c>
-      <c r="L104" t="n">
         <v>-120266665724.867</v>
       </c>
     </row>
@@ -4351,10 +3721,10 @@
         <v>2005</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105" t="n">
         <v>0.512</v>
@@ -4372,15 +3742,9 @@
         <v>105500000000</v>
       </c>
       <c r="I105" t="n">
-        <v>54016000000</v>
+        <v>-1512448000000</v>
       </c>
       <c r="J105" t="n">
-        <v>-1512448000000</v>
-      </c>
-      <c r="K105" t="n">
-        <v>4299313240.02895</v>
-      </c>
-      <c r="L105" t="n">
         <v>-120380770720.811</v>
       </c>
     </row>
@@ -4389,10 +3753,10 @@
         <v>2006</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
         <v>0.512</v>
@@ -4410,15 +3774,9 @@
         <v>105600000000</v>
       </c>
       <c r="I106" t="n">
-        <v>54067200000</v>
+        <v>-1513881600000</v>
       </c>
       <c r="J106" t="n">
-        <v>-1513881600000</v>
-      </c>
-      <c r="K106" t="n">
-        <v>4303388418.45552</v>
-      </c>
-      <c r="L106" t="n">
         <v>-120494875716.754</v>
       </c>
     </row>
@@ -4427,10 +3785,10 @@
         <v>2007</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
         <v>0.512</v>
@@ -4448,15 +3806,9 @@
         <v>105700000000</v>
       </c>
       <c r="I107" t="n">
-        <v>54118400000</v>
+        <v>-1515315200000</v>
       </c>
       <c r="J107" t="n">
-        <v>-1515315200000</v>
-      </c>
-      <c r="K107" t="n">
-        <v>4307463596.88208</v>
-      </c>
-      <c r="L107" t="n">
         <v>-120608980712.698</v>
       </c>
     </row>
@@ -4465,10 +3817,10 @@
         <v>2008</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
         <v>0.512</v>
@@ -4486,15 +3838,9 @@
         <v>105800000000</v>
       </c>
       <c r="I108" t="n">
-        <v>54169600000</v>
+        <v>-1516748800000</v>
       </c>
       <c r="J108" t="n">
-        <v>-1516748800000</v>
-      </c>
-      <c r="K108" t="n">
-        <v>4311538775.30865</v>
-      </c>
-      <c r="L108" t="n">
         <v>-120723085708.642</v>
       </c>
     </row>
@@ -4503,10 +3849,10 @@
         <v>2009</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
         <v>0.512</v>
@@ -4524,15 +3870,9 @@
         <v>105900000000</v>
       </c>
       <c r="I109" t="n">
-        <v>54220800000</v>
+        <v>-1518182400000</v>
       </c>
       <c r="J109" t="n">
-        <v>-1518182400000</v>
-      </c>
-      <c r="K109" t="n">
-        <v>4315613953.73522</v>
-      </c>
-      <c r="L109" t="n">
         <v>-120837190704.586</v>
       </c>
     </row>
@@ -4541,10 +3881,10 @@
         <v>2010</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
         <v>0.512</v>
@@ -4562,15 +3902,9 @@
         <v>106000000000</v>
       </c>
       <c r="I110" t="n">
-        <v>54272000000</v>
+        <v>-1519616000000</v>
       </c>
       <c r="J110" t="n">
-        <v>-1519616000000</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4319689132.16179</v>
-      </c>
-      <c r="L110" t="n">
         <v>-120951295700.53</v>
       </c>
     </row>
@@ -4579,10 +3913,10 @@
         <v>2011</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
         <v>0.512</v>
@@ -4600,15 +3934,9 @@
         <v>106100000000</v>
       </c>
       <c r="I111" t="n">
-        <v>54323200000</v>
+        <v>-1521049600000</v>
       </c>
       <c r="J111" t="n">
-        <v>-1521049600000</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4323764310.58836</v>
-      </c>
-      <c r="L111" t="n">
         <v>-121065400696.474</v>
       </c>
     </row>
@@ -4617,10 +3945,10 @@
         <v>2012</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
         <v>0.512</v>
@@ -4638,15 +3966,9 @@
         <v>106200000000</v>
       </c>
       <c r="I112" t="n">
-        <v>54374400000</v>
+        <v>-1522483200000</v>
       </c>
       <c r="J112" t="n">
-        <v>-1522483200000</v>
-      </c>
-      <c r="K112" t="n">
-        <v>4327839489.01492</v>
-      </c>
-      <c r="L112" t="n">
         <v>-121179505692.418</v>
       </c>
     </row>
@@ -4655,10 +3977,10 @@
         <v>2013</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
         <v>0.512</v>
@@ -4676,15 +3998,9 @@
         <v>106300000000</v>
       </c>
       <c r="I113" t="n">
-        <v>54425600000</v>
+        <v>-1523916800000</v>
       </c>
       <c r="J113" t="n">
-        <v>-1523916800000</v>
-      </c>
-      <c r="K113" t="n">
-        <v>4331914667.44149</v>
-      </c>
-      <c r="L113" t="n">
         <v>-121293610688.362</v>
       </c>
     </row>
@@ -4693,10 +4009,10 @@
         <v>2014</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
         <v>0.512</v>
@@ -4714,15 +4030,9 @@
         <v>106400000000</v>
       </c>
       <c r="I114" t="n">
-        <v>54476800000</v>
+        <v>-1525350400000</v>
       </c>
       <c r="J114" t="n">
-        <v>-1525350400000</v>
-      </c>
-      <c r="K114" t="n">
-        <v>4335989845.86806</v>
-      </c>
-      <c r="L114" t="n">
         <v>-121407715684.306</v>
       </c>
     </row>
@@ -4731,10 +4041,10 @@
         <v>2015</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
         <v>0.512</v>
@@ -4752,15 +4062,9 @@
         <v>106500000000</v>
       </c>
       <c r="I115" t="n">
-        <v>54528000000</v>
+        <v>-1526784000000</v>
       </c>
       <c r="J115" t="n">
-        <v>-1526784000000</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4340065024.29463</v>
-      </c>
-      <c r="L115" t="n">
         <v>-121521820680.25</v>
       </c>
     </row>
@@ -4769,10 +4073,10 @@
         <v>2016</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
         <v>0.512</v>
@@ -4790,15 +4094,9 @@
         <v>106600000000</v>
       </c>
       <c r="I116" t="n">
-        <v>54579200000</v>
+        <v>-1528217600000</v>
       </c>
       <c r="J116" t="n">
-        <v>-1528217600000</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4344140202.72119</v>
-      </c>
-      <c r="L116" t="n">
         <v>-121635925676.193</v>
       </c>
     </row>
@@ -4807,10 +4105,10 @@
         <v>2017</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
         <v>0.512</v>
@@ -4828,15 +4126,9 @@
         <v>106700000000</v>
       </c>
       <c r="I117" t="n">
-        <v>54630400000</v>
+        <v>-1529651200000</v>
       </c>
       <c r="J117" t="n">
-        <v>-1529651200000</v>
-      </c>
-      <c r="K117" t="n">
-        <v>4348215381.14776</v>
-      </c>
-      <c r="L117" t="n">
         <v>-121750030672.137</v>
       </c>
     </row>
@@ -4845,10 +4137,10 @@
         <v>2018</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
         <v>0.512</v>
@@ -4866,15 +4158,9 @@
         <v>106800000000</v>
       </c>
       <c r="I118" t="n">
-        <v>54681600000</v>
+        <v>-1531084800000</v>
       </c>
       <c r="J118" t="n">
-        <v>-1531084800000</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4352290559.57433</v>
-      </c>
-      <c r="L118" t="n">
         <v>-121864135668.081</v>
       </c>
     </row>
@@ -4883,10 +4169,10 @@
         <v>2019</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
         <v>0.512</v>
@@ -4904,15 +4190,9 @@
         <v>106900000000</v>
       </c>
       <c r="I119" t="n">
-        <v>54732800000</v>
+        <v>-1532518400000</v>
       </c>
       <c r="J119" t="n">
-        <v>-1532518400000</v>
-      </c>
-      <c r="K119" t="n">
-        <v>4356365738.0009</v>
-      </c>
-      <c r="L119" t="n">
         <v>-121978240664.025</v>
       </c>
     </row>
@@ -4921,10 +4201,10 @@
         <v>2020</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
         <v>0.512</v>
@@ -4942,15 +4222,9 @@
         <v>107000000000</v>
       </c>
       <c r="I120" t="n">
-        <v>54784000000</v>
+        <v>-1533952000000</v>
       </c>
       <c r="J120" t="n">
-        <v>-1533952000000</v>
-      </c>
-      <c r="K120" t="n">
-        <v>4360440916.42746</v>
-      </c>
-      <c r="L120" t="n">
         <v>-122092345659.969</v>
       </c>
     </row>
@@ -4959,10 +4233,10 @@
         <v>2021</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
         <v>0.512</v>
@@ -4980,15 +4254,9 @@
         <v>107100000000</v>
       </c>
       <c r="I121" t="n">
-        <v>54835200000</v>
+        <v>-1535385600000</v>
       </c>
       <c r="J121" t="n">
-        <v>-1535385600000</v>
-      </c>
-      <c r="K121" t="n">
-        <v>4364516094.85403</v>
-      </c>
-      <c r="L121" t="n">
         <v>-122206450655.913</v>
       </c>
     </row>
@@ -4997,10 +4265,10 @@
         <v>2022</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
         <v>0.512</v>
@@ -5018,15 +4286,9 @@
         <v>107200000000</v>
       </c>
       <c r="I122" t="n">
-        <v>54886400000</v>
+        <v>-1536819200000</v>
       </c>
       <c r="J122" t="n">
-        <v>-1536819200000</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4368591273.2806</v>
-      </c>
-      <c r="L122" t="n">
         <v>-122320555651.857</v>
       </c>
     </row>
@@ -5035,10 +4297,10 @@
         <v>2023</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
         <v>0.512</v>
@@ -5056,15 +4318,9 @@
         <v>107300000000</v>
       </c>
       <c r="I123" t="n">
-        <v>54937600000</v>
+        <v>-1538252800000</v>
       </c>
       <c r="J123" t="n">
-        <v>-1538252800000</v>
-      </c>
-      <c r="K123" t="n">
-        <v>4372666451.70717</v>
-      </c>
-      <c r="L123" t="n">
         <v>-122434660647.801</v>
       </c>
     </row>
@@ -5073,10 +4329,10 @@
         <v>2024</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
         <v>0.512</v>
@@ -5094,15 +4350,9 @@
         <v>107400000000</v>
       </c>
       <c r="I124" t="n">
-        <v>54988800000</v>
+        <v>-1539686400000</v>
       </c>
       <c r="J124" t="n">
-        <v>-1539686400000</v>
-      </c>
-      <c r="K124" t="n">
-        <v>4376741630.13374</v>
-      </c>
-      <c r="L124" t="n">
         <v>-122548765643.745</v>
       </c>
     </row>
@@ -5111,10 +4361,10 @@
         <v>2025</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D125" t="n">
         <v>0.512</v>
@@ -5132,15 +4382,9 @@
         <v>107500000000</v>
       </c>
       <c r="I125" t="n">
-        <v>55040000000</v>
+        <v>-1541120000000</v>
       </c>
       <c r="J125" t="n">
-        <v>-1541120000000</v>
-      </c>
-      <c r="K125" t="n">
-        <v>4380816808.5603</v>
-      </c>
-      <c r="L125" t="n">
         <v>-122662870639.688</v>
       </c>
     </row>
@@ -5149,10 +4393,10 @@
         <v>1950</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
         <v>0.087</v>
@@ -5170,15 +4414,9 @@
         <v>20000000000000</v>
       </c>
       <c r="I126" t="n">
-        <v>1740000000000</v>
+        <v>-53940000000000</v>
       </c>
       <c r="J126" t="n">
-        <v>-53940000000000</v>
-      </c>
-      <c r="K126" t="n">
-        <v>4128205523.05835</v>
-      </c>
-      <c r="L126" t="n">
         <v>-127974371214.809</v>
       </c>
     </row>
@@ -5187,10 +4425,10 @@
         <v>1951</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127" t="n">
         <v>0.087</v>
@@ -5208,15 +4446,9 @@
         <v>19990000000000</v>
       </c>
       <c r="I127" t="n">
-        <v>1739130000000</v>
+        <v>-53913030000000</v>
       </c>
       <c r="J127" t="n">
-        <v>-53913030000000</v>
-      </c>
-      <c r="K127" t="n">
-        <v>4126141420.29682</v>
-      </c>
-      <c r="L127" t="n">
         <v>-127910384029.201</v>
       </c>
     </row>
@@ -5225,10 +4457,10 @@
         <v>1952</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
         <v>0.087</v>
@@ -5246,15 +4478,9 @@
         <v>19980000000000</v>
       </c>
       <c r="I128" t="n">
-        <v>1738260000000</v>
+        <v>-53886060000000</v>
       </c>
       <c r="J128" t="n">
-        <v>-53886060000000</v>
-      </c>
-      <c r="K128" t="n">
-        <v>4124077317.53529</v>
-      </c>
-      <c r="L128" t="n">
         <v>-127846396843.594</v>
       </c>
     </row>
@@ -5263,10 +4489,10 @@
         <v>1953</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D129" t="n">
         <v>0.087</v>
@@ -5284,15 +4510,9 @@
         <v>19970000000000</v>
       </c>
       <c r="I129" t="n">
-        <v>1737390000000</v>
+        <v>-53859090000000</v>
       </c>
       <c r="J129" t="n">
-        <v>-53859090000000</v>
-      </c>
-      <c r="K129" t="n">
-        <v>4122013214.77376</v>
-      </c>
-      <c r="L129" t="n">
         <v>-127782409657.987</v>
       </c>
     </row>
@@ -5301,10 +4521,10 @@
         <v>1954</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D130" t="n">
         <v>0.087</v>
@@ -5322,15 +4542,9 @@
         <v>19960000000000</v>
       </c>
       <c r="I130" t="n">
-        <v>1736520000000</v>
+        <v>-53832120000000</v>
       </c>
       <c r="J130" t="n">
-        <v>-53832120000000</v>
-      </c>
-      <c r="K130" t="n">
-        <v>4119949112.01223</v>
-      </c>
-      <c r="L130" t="n">
         <v>-127718422472.379</v>
       </c>
     </row>
@@ -5339,10 +4553,10 @@
         <v>1955</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
         <v>0.087</v>
@@ -5360,15 +4574,9 @@
         <v>19950000000000</v>
       </c>
       <c r="I131" t="n">
-        <v>1735650000000</v>
+        <v>-53805150000000</v>
       </c>
       <c r="J131" t="n">
-        <v>-53805150000000</v>
-      </c>
-      <c r="K131" t="n">
-        <v>4117885009.2507</v>
-      </c>
-      <c r="L131" t="n">
         <v>-127654435286.772</v>
       </c>
     </row>
@@ -5377,10 +4585,10 @@
         <v>1956</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D132" t="n">
         <v>0.087</v>
@@ -5398,15 +4606,9 @@
         <v>19940000000000</v>
       </c>
       <c r="I132" t="n">
-        <v>1734780000000</v>
+        <v>-53778180000000</v>
       </c>
       <c r="J132" t="n">
-        <v>-53778180000000</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4115820906.48917</v>
-      </c>
-      <c r="L132" t="n">
         <v>-127590448101.164</v>
       </c>
     </row>
@@ -5415,10 +4617,10 @@
         <v>1957</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
         <v>0.087</v>
@@ -5436,15 +4638,9 @@
         <v>19930000000000</v>
       </c>
       <c r="I133" t="n">
-        <v>1733910000000</v>
+        <v>-53751210000000</v>
       </c>
       <c r="J133" t="n">
-        <v>-53751210000000</v>
-      </c>
-      <c r="K133" t="n">
-        <v>4113756803.72764</v>
-      </c>
-      <c r="L133" t="n">
         <v>-127526460915.557</v>
       </c>
     </row>
@@ -5453,10 +4649,10 @@
         <v>1958</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D134" t="n">
         <v>0.087</v>
@@ -5474,15 +4670,9 @@
         <v>19920000000000</v>
       </c>
       <c r="I134" t="n">
-        <v>1733040000000</v>
+        <v>-53724240000000</v>
       </c>
       <c r="J134" t="n">
-        <v>-53724240000000</v>
-      </c>
-      <c r="K134" t="n">
-        <v>4111692700.96611</v>
-      </c>
-      <c r="L134" t="n">
         <v>-127462473729.95</v>
       </c>
     </row>
@@ -5491,10 +4681,10 @@
         <v>1959</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
         <v>0.087</v>
@@ -5512,15 +4702,9 @@
         <v>19910000000000</v>
       </c>
       <c r="I135" t="n">
-        <v>1732170000000</v>
+        <v>-53697270000000</v>
       </c>
       <c r="J135" t="n">
-        <v>-53697270000000</v>
-      </c>
-      <c r="K135" t="n">
-        <v>4109628598.20458</v>
-      </c>
-      <c r="L135" t="n">
         <v>-127398486544.342</v>
       </c>
     </row>
@@ -5529,10 +4713,10 @@
         <v>1960</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
         <v>0.087</v>
@@ -5550,15 +4734,9 @@
         <v>19900000000000</v>
       </c>
       <c r="I136" t="n">
-        <v>1731300000000</v>
+        <v>-53670300000000</v>
       </c>
       <c r="J136" t="n">
-        <v>-53670300000000</v>
-      </c>
-      <c r="K136" t="n">
-        <v>4107564495.44305</v>
-      </c>
-      <c r="L136" t="n">
         <v>-127334499358.735</v>
       </c>
     </row>
@@ -5567,10 +4745,10 @@
         <v>1961</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D137" t="n">
         <v>0.087</v>
@@ -5588,15 +4766,9 @@
         <v>19890000000000</v>
       </c>
       <c r="I137" t="n">
-        <v>1730430000000</v>
+        <v>-53643330000000</v>
       </c>
       <c r="J137" t="n">
-        <v>-53643330000000</v>
-      </c>
-      <c r="K137" t="n">
-        <v>4105500392.68153</v>
-      </c>
-      <c r="L137" t="n">
         <v>-127270512173.127</v>
       </c>
     </row>
@@ -5605,10 +4777,10 @@
         <v>1962</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D138" t="n">
         <v>0.087</v>
@@ -5626,15 +4798,9 @@
         <v>19880000000000</v>
       </c>
       <c r="I138" t="n">
-        <v>1729560000000</v>
+        <v>-53616360000000</v>
       </c>
       <c r="J138" t="n">
-        <v>-53616360000000</v>
-      </c>
-      <c r="K138" t="n">
-        <v>4103436289.92</v>
-      </c>
-      <c r="L138" t="n">
         <v>-127206524987.52</v>
       </c>
     </row>
@@ -5643,10 +4809,10 @@
         <v>1963</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D139" t="n">
         <v>0.087</v>
@@ -5664,15 +4830,9 @@
         <v>19870000000000</v>
       </c>
       <c r="I139" t="n">
-        <v>1728690000000</v>
+        <v>-53589390000000</v>
       </c>
       <c r="J139" t="n">
-        <v>-53589390000000</v>
-      </c>
-      <c r="K139" t="n">
-        <v>4101372187.15847</v>
-      </c>
-      <c r="L139" t="n">
         <v>-127142537801.912</v>
       </c>
     </row>
@@ -5681,10 +4841,10 @@
         <v>1964</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D140" t="n">
         <v>0.087</v>
@@ -5702,15 +4862,9 @@
         <v>19860000000000</v>
       </c>
       <c r="I140" t="n">
-        <v>1727820000000</v>
+        <v>-53562420000000</v>
       </c>
       <c r="J140" t="n">
-        <v>-53562420000000</v>
-      </c>
-      <c r="K140" t="n">
-        <v>4099308084.39694</v>
-      </c>
-      <c r="L140" t="n">
         <v>-127078550616.305</v>
       </c>
     </row>
@@ -5719,10 +4873,10 @@
         <v>1965</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
         <v>0.087</v>
@@ -5740,15 +4894,9 @@
         <v>19850000000000</v>
       </c>
       <c r="I141" t="n">
-        <v>1726950000000</v>
+        <v>-53535450000000</v>
       </c>
       <c r="J141" t="n">
-        <v>-53535450000000</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4097243981.63541</v>
-      </c>
-      <c r="L141" t="n">
         <v>-127014563430.698</v>
       </c>
     </row>
@@ -5757,10 +4905,10 @@
         <v>1966</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
         <v>0.087</v>
@@ -5778,15 +4926,9 @@
         <v>19840000000000</v>
       </c>
       <c r="I142" t="n">
-        <v>1726080000000</v>
+        <v>-53508480000000</v>
       </c>
       <c r="J142" t="n">
-        <v>-53508480000000</v>
-      </c>
-      <c r="K142" t="n">
-        <v>4095179878.87388</v>
-      </c>
-      <c r="L142" t="n">
         <v>-126950576245.09</v>
       </c>
     </row>
@@ -5795,10 +4937,10 @@
         <v>1967</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
         <v>0.087</v>
@@ -5816,15 +4958,9 @@
         <v>19830000000000</v>
       </c>
       <c r="I143" t="n">
-        <v>1725210000000</v>
+        <v>-53481510000000</v>
       </c>
       <c r="J143" t="n">
-        <v>-53481510000000</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4093115776.11235</v>
-      </c>
-      <c r="L143" t="n">
         <v>-126886589059.483</v>
       </c>
     </row>
@@ -5833,10 +4969,10 @@
         <v>1968</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
         <v>0.087</v>
@@ -5854,15 +4990,9 @@
         <v>19820000000000</v>
       </c>
       <c r="I144" t="n">
-        <v>1724340000000</v>
+        <v>-53454540000000</v>
       </c>
       <c r="J144" t="n">
-        <v>-53454540000000</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4091051673.35082</v>
-      </c>
-      <c r="L144" t="n">
         <v>-126822601873.875</v>
       </c>
     </row>
@@ -5871,10 +5001,10 @@
         <v>1969</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D145" t="n">
         <v>0.087</v>
@@ -5892,15 +5022,9 @@
         <v>19810000000000</v>
       </c>
       <c r="I145" t="n">
-        <v>1723470000000</v>
+        <v>-53427570000000</v>
       </c>
       <c r="J145" t="n">
-        <v>-53427570000000</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4088987570.58929</v>
-      </c>
-      <c r="L145" t="n">
         <v>-126758614688.268</v>
       </c>
     </row>
@@ -5909,10 +5033,10 @@
         <v>1970</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D146" t="n">
         <v>0.087</v>
@@ -5930,15 +5054,9 @@
         <v>19800000000000</v>
       </c>
       <c r="I146" t="n">
-        <v>1722600000000</v>
+        <v>-53400600000000</v>
       </c>
       <c r="J146" t="n">
-        <v>-53400600000000</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4086923467.82776</v>
-      </c>
-      <c r="L146" t="n">
         <v>-126694627502.661</v>
       </c>
     </row>
@@ -5947,10 +5065,10 @@
         <v>1971</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
         <v>0.087</v>
@@ -5968,15 +5086,9 @@
         <v>19790000000000</v>
       </c>
       <c r="I147" t="n">
-        <v>1721730000000</v>
+        <v>-53373630000000</v>
       </c>
       <c r="J147" t="n">
-        <v>-53373630000000</v>
-      </c>
-      <c r="K147" t="n">
-        <v>4084859365.06623</v>
-      </c>
-      <c r="L147" t="n">
         <v>-126630640317.053</v>
       </c>
     </row>
@@ -5985,10 +5097,10 @@
         <v>1972</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D148" t="n">
         <v>0.087</v>
@@ -6006,15 +5118,9 @@
         <v>19780000000000</v>
       </c>
       <c r="I148" t="n">
-        <v>1720860000000</v>
+        <v>-53346660000000</v>
       </c>
       <c r="J148" t="n">
-        <v>-53346660000000</v>
-      </c>
-      <c r="K148" t="n">
-        <v>4082795262.3047</v>
-      </c>
-      <c r="L148" t="n">
         <v>-126566653131.446</v>
       </c>
     </row>
@@ -6023,10 +5129,10 @@
         <v>1973</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
         <v>0.087</v>
@@ -6044,15 +5150,9 @@
         <v>19770000000000</v>
       </c>
       <c r="I149" t="n">
-        <v>1719990000000</v>
+        <v>-53319690000000</v>
       </c>
       <c r="J149" t="n">
-        <v>-53319690000000</v>
-      </c>
-      <c r="K149" t="n">
-        <v>4080731159.54318</v>
-      </c>
-      <c r="L149" t="n">
         <v>-126502665945.838</v>
       </c>
     </row>
@@ -6061,10 +5161,10 @@
         <v>1974</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
         <v>0.087</v>
@@ -6082,15 +5182,9 @@
         <v>19760000000000</v>
       </c>
       <c r="I150" t="n">
-        <v>1719120000000</v>
+        <v>-53292720000000</v>
       </c>
       <c r="J150" t="n">
-        <v>-53292720000000</v>
-      </c>
-      <c r="K150" t="n">
-        <v>4078667056.78165</v>
-      </c>
-      <c r="L150" t="n">
         <v>-126438678760.231</v>
       </c>
     </row>
@@ -6099,10 +5193,10 @@
         <v>1975</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
         <v>0.087</v>
@@ -6120,15 +5214,9 @@
         <v>19750000000000</v>
       </c>
       <c r="I151" t="n">
-        <v>1718250000000</v>
+        <v>-53265750000000</v>
       </c>
       <c r="J151" t="n">
-        <v>-53265750000000</v>
-      </c>
-      <c r="K151" t="n">
-        <v>4076602954.02012</v>
-      </c>
-      <c r="L151" t="n">
         <v>-126374691574.624</v>
       </c>
     </row>
@@ -6137,10 +5225,10 @@
         <v>1976</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D152" t="n">
         <v>0.087</v>
@@ -6158,15 +5246,9 @@
         <v>19740000000000</v>
       </c>
       <c r="I152" t="n">
-        <v>1717380000000</v>
+        <v>-53238780000000</v>
       </c>
       <c r="J152" t="n">
-        <v>-53238780000000</v>
-      </c>
-      <c r="K152" t="n">
-        <v>4074538851.25859</v>
-      </c>
-      <c r="L152" t="n">
         <v>-126310704389.016</v>
       </c>
     </row>
@@ -6175,10 +5257,10 @@
         <v>1977</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D153" t="n">
         <v>0.087</v>
@@ -6196,15 +5278,9 @@
         <v>19730000000000</v>
       </c>
       <c r="I153" t="n">
-        <v>1716510000000</v>
+        <v>-53211810000000</v>
       </c>
       <c r="J153" t="n">
-        <v>-53211810000000</v>
-      </c>
-      <c r="K153" t="n">
-        <v>4072474748.49706</v>
-      </c>
-      <c r="L153" t="n">
         <v>-126246717203.409</v>
       </c>
     </row>
@@ -6213,10 +5289,10 @@
         <v>1978</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D154" t="n">
         <v>0.087</v>
@@ -6234,15 +5310,9 @@
         <v>19720000000000</v>
       </c>
       <c r="I154" t="n">
-        <v>1715640000000</v>
+        <v>-53184840000000</v>
       </c>
       <c r="J154" t="n">
-        <v>-53184840000000</v>
-      </c>
-      <c r="K154" t="n">
-        <v>4070410645.73553</v>
-      </c>
-      <c r="L154" t="n">
         <v>-126182730017.801</v>
       </c>
     </row>
@@ -6251,10 +5321,10 @@
         <v>1979</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D155" t="n">
         <v>0.087</v>
@@ -6272,15 +5342,9 @@
         <v>19710000000000</v>
       </c>
       <c r="I155" t="n">
-        <v>1714770000000</v>
+        <v>-53157870000000</v>
       </c>
       <c r="J155" t="n">
-        <v>-53157870000000</v>
-      </c>
-      <c r="K155" t="n">
-        <v>4068346542.974</v>
-      </c>
-      <c r="L155" t="n">
         <v>-126118742832.194</v>
       </c>
     </row>
@@ -6289,10 +5353,10 @@
         <v>1980</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D156" t="n">
         <v>0.087</v>
@@ -6310,15 +5374,9 @@
         <v>19700000000000</v>
       </c>
       <c r="I156" t="n">
-        <v>1713900000000</v>
+        <v>-53130900000000</v>
       </c>
       <c r="J156" t="n">
-        <v>-53130900000000</v>
-      </c>
-      <c r="K156" t="n">
-        <v>4066282440.21247</v>
-      </c>
-      <c r="L156" t="n">
         <v>-126054755646.587</v>
       </c>
     </row>
@@ -6327,10 +5385,10 @@
         <v>1981</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D157" t="n">
         <v>0.087</v>
@@ -6348,15 +5406,9 @@
         <v>19690000000000</v>
       </c>
       <c r="I157" t="n">
-        <v>1713030000000</v>
+        <v>-53103930000000</v>
       </c>
       <c r="J157" t="n">
-        <v>-53103930000000</v>
-      </c>
-      <c r="K157" t="n">
-        <v>4064218337.45094</v>
-      </c>
-      <c r="L157" t="n">
         <v>-125990768460.979</v>
       </c>
     </row>
@@ -6365,10 +5417,10 @@
         <v>1982</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D158" t="n">
         <v>0.087</v>
@@ -6386,15 +5438,9 @@
         <v>19680000000000</v>
       </c>
       <c r="I158" t="n">
-        <v>1712160000000</v>
+        <v>-53076960000000</v>
       </c>
       <c r="J158" t="n">
-        <v>-53076960000000</v>
-      </c>
-      <c r="K158" t="n">
-        <v>4062154234.68941</v>
-      </c>
-      <c r="L158" t="n">
         <v>-125926781275.372</v>
       </c>
     </row>
@@ -6403,10 +5449,10 @@
         <v>1983</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
         <v>0.087</v>
@@ -6424,15 +5470,9 @@
         <v>19670000000000</v>
       </c>
       <c r="I159" t="n">
-        <v>1711290000000</v>
+        <v>-53049990000000</v>
       </c>
       <c r="J159" t="n">
-        <v>-53049990000000</v>
-      </c>
-      <c r="K159" t="n">
-        <v>4060090131.92788</v>
-      </c>
-      <c r="L159" t="n">
         <v>-125862794089.764</v>
       </c>
     </row>
@@ -6441,10 +5481,10 @@
         <v>1984</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
         <v>0.087</v>
@@ -6462,15 +5502,9 @@
         <v>19660000000000</v>
       </c>
       <c r="I160" t="n">
-        <v>1710420000000</v>
+        <v>-53023020000000</v>
       </c>
       <c r="J160" t="n">
-        <v>-53023020000000</v>
-      </c>
-      <c r="K160" t="n">
-        <v>4058026029.16635</v>
-      </c>
-      <c r="L160" t="n">
         <v>-125798806904.157</v>
       </c>
     </row>
@@ -6479,10 +5513,10 @@
         <v>1985</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D161" t="n">
         <v>0.087</v>
@@ -6500,15 +5534,9 @@
         <v>19650000000000</v>
       </c>
       <c r="I161" t="n">
-        <v>1709550000000</v>
+        <v>-52996050000000</v>
       </c>
       <c r="J161" t="n">
-        <v>-52996050000000</v>
-      </c>
-      <c r="K161" t="n">
-        <v>4055961926.40483</v>
-      </c>
-      <c r="L161" t="n">
         <v>-125734819718.55</v>
       </c>
     </row>
@@ -6517,10 +5545,10 @@
         <v>1986</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
         <v>0.087</v>
@@ -6538,15 +5566,9 @@
         <v>19640000000000</v>
       </c>
       <c r="I162" t="n">
-        <v>1708680000000</v>
+        <v>-52969080000000</v>
       </c>
       <c r="J162" t="n">
-        <v>-52969080000000</v>
-      </c>
-      <c r="K162" t="n">
-        <v>4053897823.6433</v>
-      </c>
-      <c r="L162" t="n">
         <v>-125670832532.942</v>
       </c>
     </row>
@@ -6555,10 +5577,10 @@
         <v>1987</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D163" t="n">
         <v>0.087</v>
@@ -6576,15 +5598,9 @@
         <v>19630000000000</v>
       </c>
       <c r="I163" t="n">
-        <v>1707810000000</v>
+        <v>-52942110000000</v>
       </c>
       <c r="J163" t="n">
-        <v>-52942110000000</v>
-      </c>
-      <c r="K163" t="n">
-        <v>4051833720.88177</v>
-      </c>
-      <c r="L163" t="n">
         <v>-125606845347.335</v>
       </c>
     </row>
@@ -6593,10 +5609,10 @@
         <v>1988</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D164" t="n">
         <v>0.087</v>
@@ -6614,15 +5630,9 @@
         <v>19620000000000</v>
       </c>
       <c r="I164" t="n">
-        <v>1706940000000</v>
+        <v>-52915140000000</v>
       </c>
       <c r="J164" t="n">
-        <v>-52915140000000</v>
-      </c>
-      <c r="K164" t="n">
-        <v>4049769618.12024</v>
-      </c>
-      <c r="L164" t="n">
         <v>-125542858161.727</v>
       </c>
     </row>
@@ -6631,10 +5641,10 @@
         <v>1989</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
         <v>0.087</v>
@@ -6652,15 +5662,9 @@
         <v>19610000000000</v>
       </c>
       <c r="I165" t="n">
-        <v>1706070000000</v>
+        <v>-52888170000000</v>
       </c>
       <c r="J165" t="n">
-        <v>-52888170000000</v>
-      </c>
-      <c r="K165" t="n">
-        <v>4047705515.35871</v>
-      </c>
-      <c r="L165" t="n">
         <v>-125478870976.12</v>
       </c>
     </row>
@@ -6669,10 +5673,10 @@
         <v>1990</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D166" t="n">
         <v>0.087</v>
@@ -6690,15 +5694,9 @@
         <v>19600000000000</v>
       </c>
       <c r="I166" t="n">
-        <v>1705200000000</v>
+        <v>-52861200000000</v>
       </c>
       <c r="J166" t="n">
-        <v>-52861200000000</v>
-      </c>
-      <c r="K166" t="n">
-        <v>4045641412.59718</v>
-      </c>
-      <c r="L166" t="n">
         <v>-125414883790.513</v>
       </c>
     </row>
@@ -6707,10 +5705,10 @@
         <v>1991</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D167" t="n">
         <v>0.087</v>
@@ -6728,15 +5726,9 @@
         <v>19590000000000</v>
       </c>
       <c r="I167" t="n">
-        <v>1704330000000</v>
+        <v>-52834230000000</v>
       </c>
       <c r="J167" t="n">
-        <v>-52834230000000</v>
-      </c>
-      <c r="K167" t="n">
-        <v>4043577309.83565</v>
-      </c>
-      <c r="L167" t="n">
         <v>-125350896604.905</v>
       </c>
     </row>
@@ -6745,10 +5737,10 @@
         <v>1992</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D168" t="n">
         <v>0.087</v>
@@ -6766,15 +5758,9 @@
         <v>19580000000000</v>
       </c>
       <c r="I168" t="n">
-        <v>1703460000000</v>
+        <v>-52807260000000</v>
       </c>
       <c r="J168" t="n">
-        <v>-52807260000000</v>
-      </c>
-      <c r="K168" t="n">
-        <v>4041513207.07412</v>
-      </c>
-      <c r="L168" t="n">
         <v>-125286909419.298</v>
       </c>
     </row>
@@ -6783,10 +5769,10 @@
         <v>1993</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D169" t="n">
         <v>0.087</v>
@@ -6804,15 +5790,9 @@
         <v>19570000000000</v>
       </c>
       <c r="I169" t="n">
-        <v>1702590000000</v>
+        <v>-52780290000000</v>
       </c>
       <c r="J169" t="n">
-        <v>-52780290000000</v>
-      </c>
-      <c r="K169" t="n">
-        <v>4039449104.31259</v>
-      </c>
-      <c r="L169" t="n">
         <v>-125222922233.69</v>
       </c>
     </row>
@@ -6821,10 +5801,10 @@
         <v>1994</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D170" t="n">
         <v>0.087</v>
@@ -6842,15 +5822,9 @@
         <v>19560000000000</v>
       </c>
       <c r="I170" t="n">
-        <v>1701720000000</v>
+        <v>-52753320000000</v>
       </c>
       <c r="J170" t="n">
-        <v>-52753320000000</v>
-      </c>
-      <c r="K170" t="n">
-        <v>4037385001.55106</v>
-      </c>
-      <c r="L170" t="n">
         <v>-125158935048.083</v>
       </c>
     </row>
@@ -6859,10 +5833,10 @@
         <v>1995</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D171" t="n">
         <v>0.087</v>
@@ -6880,15 +5854,9 @@
         <v>19550000000000</v>
       </c>
       <c r="I171" t="n">
-        <v>1700850000000</v>
+        <v>-52726350000000</v>
       </c>
       <c r="J171" t="n">
-        <v>-52726350000000</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4035320898.78953</v>
-      </c>
-      <c r="L171" t="n">
         <v>-125094947862.476</v>
       </c>
     </row>
@@ -6897,10 +5865,10 @@
         <v>1996</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D172" t="n">
         <v>0.087</v>
@@ -6918,15 +5886,9 @@
         <v>19540000000000</v>
       </c>
       <c r="I172" t="n">
-        <v>1699980000000</v>
+        <v>-52699380000000</v>
       </c>
       <c r="J172" t="n">
-        <v>-52699380000000</v>
-      </c>
-      <c r="K172" t="n">
-        <v>4033256796.028</v>
-      </c>
-      <c r="L172" t="n">
         <v>-125030960676.868</v>
       </c>
     </row>
@@ -6935,10 +5897,10 @@
         <v>1997</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D173" t="n">
         <v>0.087</v>
@@ -6956,15 +5918,9 @@
         <v>19530000000000</v>
       </c>
       <c r="I173" t="n">
-        <v>1699110000000</v>
+        <v>-52672410000000</v>
       </c>
       <c r="J173" t="n">
-        <v>-52672410000000</v>
-      </c>
-      <c r="K173" t="n">
-        <v>4031192693.26648</v>
-      </c>
-      <c r="L173" t="n">
         <v>-124966973491.261</v>
       </c>
     </row>
@@ -6973,10 +5929,10 @@
         <v>1998</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D174" t="n">
         <v>0.087</v>
@@ -6994,15 +5950,9 @@
         <v>19520000000000</v>
       </c>
       <c r="I174" t="n">
-        <v>1698240000000</v>
+        <v>-52645440000000</v>
       </c>
       <c r="J174" t="n">
-        <v>-52645440000000</v>
-      </c>
-      <c r="K174" t="n">
-        <v>4029128590.50495</v>
-      </c>
-      <c r="L174" t="n">
         <v>-124902986305.653</v>
       </c>
     </row>
@@ -7011,10 +5961,10 @@
         <v>1999</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
         <v>0.087</v>
@@ -7032,15 +5982,9 @@
         <v>19510000000000</v>
       </c>
       <c r="I175" t="n">
-        <v>1697370000000</v>
+        <v>-52618470000000</v>
       </c>
       <c r="J175" t="n">
-        <v>-52618470000000</v>
-      </c>
-      <c r="K175" t="n">
-        <v>4027064487.74342</v>
-      </c>
-      <c r="L175" t="n">
         <v>-124838999120.046</v>
       </c>
     </row>
@@ -7049,10 +5993,10 @@
         <v>2000</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D176" t="n">
         <v>0.087</v>
@@ -7070,15 +6014,9 @@
         <v>19500000000000</v>
       </c>
       <c r="I176" t="n">
-        <v>1696500000000</v>
+        <v>-52591500000000</v>
       </c>
       <c r="J176" t="n">
-        <v>-52591500000000</v>
-      </c>
-      <c r="K176" t="n">
-        <v>4025000384.98189</v>
-      </c>
-      <c r="L176" t="n">
         <v>-124775011934.439</v>
       </c>
     </row>
@@ -7087,10 +6025,10 @@
         <v>2001</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
         <v>0.087</v>
@@ -7108,15 +6046,9 @@
         <v>19490000000000</v>
       </c>
       <c r="I177" t="n">
-        <v>1695630000000</v>
+        <v>-52564530000000</v>
       </c>
       <c r="J177" t="n">
-        <v>-52564530000000</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4022936282.22036</v>
-      </c>
-      <c r="L177" t="n">
         <v>-124711024748.831</v>
       </c>
     </row>
@@ -7125,10 +6057,10 @@
         <v>2002</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D178" t="n">
         <v>0.087</v>
@@ -7146,15 +6078,9 @@
         <v>19480000000000</v>
       </c>
       <c r="I178" t="n">
-        <v>1694760000000</v>
+        <v>-52537560000000</v>
       </c>
       <c r="J178" t="n">
-        <v>-52537560000000</v>
-      </c>
-      <c r="K178" t="n">
-        <v>4020872179.45883</v>
-      </c>
-      <c r="L178" t="n">
         <v>-124647037563.224</v>
       </c>
     </row>
@@ -7163,10 +6089,10 @@
         <v>2003</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D179" t="n">
         <v>0.087</v>
@@ -7184,15 +6110,9 @@
         <v>19470000000000</v>
       </c>
       <c r="I179" t="n">
-        <v>1693890000000</v>
+        <v>-52510590000000</v>
       </c>
       <c r="J179" t="n">
-        <v>-52510590000000</v>
-      </c>
-      <c r="K179" t="n">
-        <v>4018808076.6973</v>
-      </c>
-      <c r="L179" t="n">
         <v>-124583050377.616</v>
       </c>
     </row>
@@ -7201,10 +6121,10 @@
         <v>2004</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D180" t="n">
         <v>0.087</v>
@@ -7222,15 +6142,9 @@
         <v>19460000000000</v>
       </c>
       <c r="I180" t="n">
-        <v>1693020000000</v>
+        <v>-52483620000000</v>
       </c>
       <c r="J180" t="n">
-        <v>-52483620000000</v>
-      </c>
-      <c r="K180" t="n">
-        <v>4016743973.93577</v>
-      </c>
-      <c r="L180" t="n">
         <v>-124519063192.009</v>
       </c>
     </row>
@@ -7239,10 +6153,10 @@
         <v>2005</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D181" t="n">
         <v>0.087</v>
@@ -7260,15 +6174,9 @@
         <v>19450000000000</v>
       </c>
       <c r="I181" t="n">
-        <v>1692150000000</v>
+        <v>-52456650000000</v>
       </c>
       <c r="J181" t="n">
-        <v>-52456650000000</v>
-      </c>
-      <c r="K181" t="n">
-        <v>4014679871.17424</v>
-      </c>
-      <c r="L181" t="n">
         <v>-124455076006.402</v>
       </c>
     </row>
@@ -7277,10 +6185,10 @@
         <v>2006</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
         <v>0.087</v>
@@ -7298,15 +6206,9 @@
         <v>19440000000000</v>
       </c>
       <c r="I182" t="n">
-        <v>1691280000000</v>
+        <v>-52429680000000</v>
       </c>
       <c r="J182" t="n">
-        <v>-52429680000000</v>
-      </c>
-      <c r="K182" t="n">
-        <v>4012615768.41271</v>
-      </c>
-      <c r="L182" t="n">
         <v>-124391088820.794</v>
       </c>
     </row>
@@ -7315,10 +6217,10 @@
         <v>2007</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D183" t="n">
         <v>0.087</v>
@@ -7336,15 +6238,9 @@
         <v>19430000000000</v>
       </c>
       <c r="I183" t="n">
-        <v>1690410000000</v>
+        <v>-52402710000000</v>
       </c>
       <c r="J183" t="n">
-        <v>-52402710000000</v>
-      </c>
-      <c r="K183" t="n">
-        <v>4010551665.65118</v>
-      </c>
-      <c r="L183" t="n">
         <v>-124327101635.187</v>
       </c>
     </row>
@@ -7353,10 +6249,10 @@
         <v>2008</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D184" t="n">
         <v>0.087</v>
@@ -7374,15 +6270,9 @@
         <v>19420000000000</v>
       </c>
       <c r="I184" t="n">
-        <v>1689540000000</v>
+        <v>-52375740000000</v>
       </c>
       <c r="J184" t="n">
-        <v>-52375740000000</v>
-      </c>
-      <c r="K184" t="n">
-        <v>4008487562.88965</v>
-      </c>
-      <c r="L184" t="n">
         <v>-124263114449.579</v>
       </c>
     </row>
@@ -7391,10 +6281,10 @@
         <v>2009</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D185" t="n">
         <v>0.087</v>
@@ -7412,15 +6302,9 @@
         <v>19410000000000</v>
       </c>
       <c r="I185" t="n">
-        <v>1688670000000</v>
+        <v>-52348770000000</v>
       </c>
       <c r="J185" t="n">
-        <v>-52348770000000</v>
-      </c>
-      <c r="K185" t="n">
-        <v>4006423460.12813</v>
-      </c>
-      <c r="L185" t="n">
         <v>-124199127263.972</v>
       </c>
     </row>
@@ -7429,10 +6313,10 @@
         <v>2010</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D186" t="n">
         <v>0.087</v>
@@ -7450,15 +6334,9 @@
         <v>19400000000000</v>
       </c>
       <c r="I186" t="n">
-        <v>1687800000000</v>
+        <v>-52321800000000</v>
       </c>
       <c r="J186" t="n">
-        <v>-52321800000000</v>
-      </c>
-      <c r="K186" t="n">
-        <v>4004359357.3666</v>
-      </c>
-      <c r="L186" t="n">
         <v>-124135140078.364</v>
       </c>
     </row>
@@ -7467,10 +6345,10 @@
         <v>2011</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D187" t="n">
         <v>0.087</v>
@@ -7488,15 +6366,9 @@
         <v>19390000000000</v>
       </c>
       <c r="I187" t="n">
-        <v>1686930000000</v>
+        <v>-52294830000000</v>
       </c>
       <c r="J187" t="n">
-        <v>-52294830000000</v>
-      </c>
-      <c r="K187" t="n">
-        <v>4002295254.60507</v>
-      </c>
-      <c r="L187" t="n">
         <v>-124071152892.757</v>
       </c>
     </row>
@@ -7505,10 +6377,10 @@
         <v>2012</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D188" t="n">
         <v>0.087</v>
@@ -7526,15 +6398,9 @@
         <v>19380000000000</v>
       </c>
       <c r="I188" t="n">
-        <v>1686060000000</v>
+        <v>-52267860000000</v>
       </c>
       <c r="J188" t="n">
-        <v>-52267860000000</v>
-      </c>
-      <c r="K188" t="n">
-        <v>4000231151.84354</v>
-      </c>
-      <c r="L188" t="n">
         <v>-124007165707.15</v>
       </c>
     </row>
@@ -7543,10 +6409,10 @@
         <v>2013</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D189" t="n">
         <v>0.087</v>
@@ -7564,15 +6430,9 @@
         <v>19370000000000</v>
       </c>
       <c r="I189" t="n">
-        <v>1685190000000</v>
+        <v>-52240890000000</v>
       </c>
       <c r="J189" t="n">
-        <v>-52240890000000</v>
-      </c>
-      <c r="K189" t="n">
-        <v>3998167049.08201</v>
-      </c>
-      <c r="L189" t="n">
         <v>-123943178521.542</v>
       </c>
     </row>
@@ -7581,10 +6441,10 @@
         <v>2014</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D190" t="n">
         <v>0.087</v>
@@ -7602,15 +6462,9 @@
         <v>19360000000000</v>
       </c>
       <c r="I190" t="n">
-        <v>1684320000000</v>
+        <v>-52213920000000</v>
       </c>
       <c r="J190" t="n">
-        <v>-52213920000000</v>
-      </c>
-      <c r="K190" t="n">
-        <v>3996102946.32048</v>
-      </c>
-      <c r="L190" t="n">
         <v>-123879191335.935</v>
       </c>
     </row>
@@ -7619,10 +6473,10 @@
         <v>2015</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
         <v>0.087</v>
@@ -7640,15 +6494,9 @@
         <v>19350000000000</v>
       </c>
       <c r="I191" t="n">
-        <v>1683450000000</v>
+        <v>-52186950000000</v>
       </c>
       <c r="J191" t="n">
-        <v>-52186950000000</v>
-      </c>
-      <c r="K191" t="n">
-        <v>3994038843.55895</v>
-      </c>
-      <c r="L191" t="n">
         <v>-123815204150.327</v>
       </c>
     </row>
@@ -7657,10 +6505,10 @@
         <v>2016</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
         <v>0.087</v>
@@ -7678,15 +6526,9 @@
         <v>19340000000000</v>
       </c>
       <c r="I192" t="n">
-        <v>1682580000000</v>
+        <v>-52159980000000</v>
       </c>
       <c r="J192" t="n">
-        <v>-52159980000000</v>
-      </c>
-      <c r="K192" t="n">
-        <v>3991974740.79742</v>
-      </c>
-      <c r="L192" t="n">
         <v>-123751216964.72</v>
       </c>
     </row>
@@ -7695,10 +6537,10 @@
         <v>2017</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
         <v>0.087</v>
@@ -7716,15 +6558,9 @@
         <v>19330000000000</v>
       </c>
       <c r="I193" t="n">
-        <v>1681710000000</v>
+        <v>-52133010000000</v>
       </c>
       <c r="J193" t="n">
-        <v>-52133010000000</v>
-      </c>
-      <c r="K193" t="n">
-        <v>3989910638.03589</v>
-      </c>
-      <c r="L193" t="n">
         <v>-123687229779.113</v>
       </c>
     </row>
@@ -7733,10 +6569,10 @@
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
         <v>0.087</v>
@@ -7754,15 +6590,9 @@
         <v>19320000000000</v>
       </c>
       <c r="I194" t="n">
-        <v>1680840000000</v>
+        <v>-52106040000000</v>
       </c>
       <c r="J194" t="n">
-        <v>-52106040000000</v>
-      </c>
-      <c r="K194" t="n">
-        <v>3987846535.27436</v>
-      </c>
-      <c r="L194" t="n">
         <v>-123623242593.505</v>
       </c>
     </row>
@@ -7771,10 +6601,10 @@
         <v>2019</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D195" t="n">
         <v>0.087</v>
@@ -7792,15 +6622,9 @@
         <v>19310000000000</v>
       </c>
       <c r="I195" t="n">
-        <v>1679970000000</v>
+        <v>-52079070000000</v>
       </c>
       <c r="J195" t="n">
-        <v>-52079070000000</v>
-      </c>
-      <c r="K195" t="n">
-        <v>3985782432.51283</v>
-      </c>
-      <c r="L195" t="n">
         <v>-123559255407.898</v>
       </c>
     </row>
@@ -7809,10 +6633,10 @@
         <v>2020</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D196" t="n">
         <v>0.087</v>
@@ -7830,15 +6654,9 @@
         <v>19300000000000</v>
       </c>
       <c r="I196" t="n">
-        <v>1679100000000</v>
+        <v>-52052100000000</v>
       </c>
       <c r="J196" t="n">
-        <v>-52052100000000</v>
-      </c>
-      <c r="K196" t="n">
-        <v>3983718329.7513</v>
-      </c>
-      <c r="L196" t="n">
         <v>-123495268222.29</v>
       </c>
     </row>
@@ -7847,10 +6665,10 @@
         <v>2021</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
         <v>0.087</v>
@@ -7868,15 +6686,9 @@
         <v>19290000000000</v>
       </c>
       <c r="I197" t="n">
-        <v>1678230000000</v>
+        <v>-52025130000000</v>
       </c>
       <c r="J197" t="n">
-        <v>-52025130000000</v>
-      </c>
-      <c r="K197" t="n">
-        <v>3981654226.98978</v>
-      </c>
-      <c r="L197" t="n">
         <v>-123431281036.683</v>
       </c>
     </row>
@@ -7885,10 +6697,10 @@
         <v>2022</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D198" t="n">
         <v>0.087</v>
@@ -7906,15 +6718,9 @@
         <v>19280000000000</v>
       </c>
       <c r="I198" t="n">
-        <v>1677360000000</v>
+        <v>-51998160000000</v>
       </c>
       <c r="J198" t="n">
-        <v>-51998160000000</v>
-      </c>
-      <c r="K198" t="n">
-        <v>3979590124.22825</v>
-      </c>
-      <c r="L198" t="n">
         <v>-123367293851.076</v>
       </c>
     </row>
@@ -7923,10 +6729,10 @@
         <v>2023</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
         <v>0.087</v>
@@ -7944,15 +6750,9 @@
         <v>19270000000000</v>
       </c>
       <c r="I199" t="n">
-        <v>1676490000000</v>
+        <v>-51971190000000</v>
       </c>
       <c r="J199" t="n">
-        <v>-51971190000000</v>
-      </c>
-      <c r="K199" t="n">
-        <v>3977526021.46672</v>
-      </c>
-      <c r="L199" t="n">
         <v>-123303306665.468</v>
       </c>
     </row>
@@ -7961,10 +6761,10 @@
         <v>2024</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D200" t="n">
         <v>0.087</v>
@@ -7982,15 +6782,9 @@
         <v>19260000000000</v>
       </c>
       <c r="I200" t="n">
-        <v>1675620000000</v>
+        <v>-51944220000000</v>
       </c>
       <c r="J200" t="n">
-        <v>-51944220000000</v>
-      </c>
-      <c r="K200" t="n">
-        <v>3975461918.70519</v>
-      </c>
-      <c r="L200" t="n">
         <v>-123239319479.861</v>
       </c>
     </row>
@@ -7999,10 +6793,10 @@
         <v>2025</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D201" t="n">
         <v>0.087</v>
@@ -8020,15 +6814,9 @@
         <v>19250000000000</v>
       </c>
       <c r="I201" t="n">
-        <v>1674750000000</v>
+        <v>-51917250000000</v>
       </c>
       <c r="J201" t="n">
-        <v>-51917250000000</v>
-      </c>
-      <c r="K201" t="n">
-        <v>3973397815.94366</v>
-      </c>
-      <c r="L201" t="n">
         <v>-123175332294.253</v>
       </c>
     </row>
@@ -8037,10 +6825,10 @@
         <v>1950</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D202" t="n">
         <v>0.001</v>
@@ -8058,15 +6846,9 @@
         <v>10000000000000000000</v>
       </c>
       <c r="I202" t="n">
-        <v>10000000000000000</v>
+        <v>-420000000000000000</v>
       </c>
       <c r="J202" t="n">
-        <v>-420000000000000000</v>
-      </c>
-      <c r="K202" t="n">
-        <v>4077305716382.61</v>
-      </c>
-      <c r="L202" t="n">
         <v>-171246840088070</v>
       </c>
     </row>
@@ -8075,10 +6857,10 @@
         <v>1951</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D203" t="n">
         <v>0.001</v>
@@ -8096,15 +6878,9 @@
         <v>10010000000000000000</v>
       </c>
       <c r="I203" t="n">
-        <v>10010000000000000</v>
+        <v>-420420000000000000</v>
       </c>
       <c r="J203" t="n">
-        <v>-420420000000000000</v>
-      </c>
-      <c r="K203" t="n">
-        <v>4081383022099</v>
-      </c>
-      <c r="L203" t="n">
         <v>-171418086928158</v>
       </c>
     </row>
@@ -8113,10 +6889,10 @@
         <v>1952</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D204" t="n">
         <v>0.001</v>
@@ -8134,15 +6910,9 @@
         <v>10020000000000000000</v>
       </c>
       <c r="I204" t="n">
-        <v>10020000000000000</v>
+        <v>-420840000000000000</v>
       </c>
       <c r="J204" t="n">
-        <v>-420840000000000000</v>
-      </c>
-      <c r="K204" t="n">
-        <v>4085460327815.38</v>
-      </c>
-      <c r="L204" t="n">
         <v>-171589333768246</v>
       </c>
     </row>
@@ -8151,10 +6921,10 @@
         <v>1953</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D205" t="n">
         <v>0.001</v>
@@ -8172,15 +6942,9 @@
         <v>10030000000000000000</v>
       </c>
       <c r="I205" t="n">
-        <v>10030000000000000</v>
+        <v>-421260000000000000</v>
       </c>
       <c r="J205" t="n">
-        <v>-421260000000000000</v>
-      </c>
-      <c r="K205" t="n">
-        <v>4089537633531.76</v>
-      </c>
-      <c r="L205" t="n">
         <v>-171760580608334</v>
       </c>
     </row>
@@ -8189,10 +6953,10 @@
         <v>1954</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D206" t="n">
         <v>0.001</v>
@@ -8210,15 +6974,9 @@
         <v>10040000000000000000</v>
       </c>
       <c r="I206" t="n">
-        <v>10040000000000000</v>
+        <v>-421680000000000000</v>
       </c>
       <c r="J206" t="n">
-        <v>-421680000000000000</v>
-      </c>
-      <c r="K206" t="n">
-        <v>4093614939248.14</v>
-      </c>
-      <c r="L206" t="n">
         <v>-171931827448422</v>
       </c>
     </row>
@@ -8227,10 +6985,10 @@
         <v>1955</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D207" t="n">
         <v>0.001</v>
@@ -8248,15 +7006,9 @@
         <v>10050000000000000000</v>
       </c>
       <c r="I207" t="n">
-        <v>10050000000000000</v>
+        <v>-422100000000000000</v>
       </c>
       <c r="J207" t="n">
-        <v>-422100000000000000</v>
-      </c>
-      <c r="K207" t="n">
-        <v>4097692244964.53</v>
-      </c>
-      <c r="L207" t="n">
         <v>-172103074288510</v>
       </c>
     </row>
@@ -8265,10 +7017,10 @@
         <v>1956</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D208" t="n">
         <v>0.001</v>
@@ -8286,15 +7038,9 @@
         <v>10060000000000000000</v>
       </c>
       <c r="I208" t="n">
-        <v>10060000000000000</v>
+        <v>-422520000000000000</v>
       </c>
       <c r="J208" t="n">
-        <v>-422520000000000000</v>
-      </c>
-      <c r="K208" t="n">
-        <v>4101769550680.91</v>
-      </c>
-      <c r="L208" t="n">
         <v>-172274321128598</v>
       </c>
     </row>
@@ -8303,10 +7049,10 @@
         <v>1957</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D209" t="n">
         <v>0.001</v>
@@ -8324,15 +7070,9 @@
         <v>10070000000000000000</v>
       </c>
       <c r="I209" t="n">
-        <v>10070000000000000</v>
+        <v>-422940000000000000</v>
       </c>
       <c r="J209" t="n">
-        <v>-422940000000000000</v>
-      </c>
-      <c r="K209" t="n">
-        <v>4105846856397.29</v>
-      </c>
-      <c r="L209" t="n">
         <v>-172445567968686</v>
       </c>
     </row>
@@ -8341,10 +7081,10 @@
         <v>1958</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D210" t="n">
         <v>0.001</v>
@@ -8362,15 +7102,9 @@
         <v>10080000000000000000</v>
       </c>
       <c r="I210" t="n">
-        <v>10080000000000000</v>
+        <v>-423360000000000000</v>
       </c>
       <c r="J210" t="n">
-        <v>-423360000000000000</v>
-      </c>
-      <c r="K210" t="n">
-        <v>4109924162113.68</v>
-      </c>
-      <c r="L210" t="n">
         <v>-172616814808774</v>
       </c>
     </row>
@@ -8379,10 +7113,10 @@
         <v>1959</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D211" t="n">
         <v>0.001</v>
@@ -8400,15 +7134,9 @@
         <v>10090000000000000000</v>
       </c>
       <c r="I211" t="n">
-        <v>10090000000000000</v>
+        <v>-423780000000000000</v>
       </c>
       <c r="J211" t="n">
-        <v>-423780000000000000</v>
-      </c>
-      <c r="K211" t="n">
-        <v>4114001467830.06</v>
-      </c>
-      <c r="L211" t="n">
         <v>-172788061648862</v>
       </c>
     </row>
@@ -8417,10 +7145,10 @@
         <v>1960</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D212" t="n">
         <v>0.001</v>
@@ -8438,15 +7166,9 @@
         <v>10100000000000000000</v>
       </c>
       <c r="I212" t="n">
-        <v>10100000000000000</v>
+        <v>-424200000000000000</v>
       </c>
       <c r="J212" t="n">
-        <v>-424200000000000000</v>
-      </c>
-      <c r="K212" t="n">
-        <v>4118078773546.44</v>
-      </c>
-      <c r="L212" t="n">
         <v>-172959308488950</v>
       </c>
     </row>
@@ -8455,10 +7177,10 @@
         <v>1961</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D213" t="n">
         <v>0.001</v>
@@ -8476,15 +7198,9 @@
         <v>10110000000000000000</v>
       </c>
       <c r="I213" t="n">
-        <v>10110000000000000</v>
+        <v>-424620000000000000</v>
       </c>
       <c r="J213" t="n">
-        <v>-424620000000000000</v>
-      </c>
-      <c r="K213" t="n">
-        <v>4122156079262.82</v>
-      </c>
-      <c r="L213" t="n">
         <v>-173130555329039</v>
       </c>
     </row>
@@ -8493,10 +7209,10 @@
         <v>1962</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D214" t="n">
         <v>0.001</v>
@@ -8514,15 +7230,9 @@
         <v>10120000000000000000</v>
       </c>
       <c r="I214" t="n">
-        <v>10120000000000000</v>
+        <v>-425040000000000000</v>
       </c>
       <c r="J214" t="n">
-        <v>-425040000000000000</v>
-      </c>
-      <c r="K214" t="n">
-        <v>4126233384979.21</v>
-      </c>
-      <c r="L214" t="n">
         <v>-173301802169127</v>
       </c>
     </row>
@@ -8531,10 +7241,10 @@
         <v>1963</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D215" t="n">
         <v>0.001</v>
@@ -8552,15 +7262,9 @@
         <v>10130000000000000000</v>
       </c>
       <c r="I215" t="n">
-        <v>10130000000000000</v>
+        <v>-425460000000000000</v>
       </c>
       <c r="J215" t="n">
-        <v>-425460000000000000</v>
-      </c>
-      <c r="K215" t="n">
-        <v>4130310690695.59</v>
-      </c>
-      <c r="L215" t="n">
         <v>-173473049009215</v>
       </c>
     </row>
@@ -8569,10 +7273,10 @@
         <v>1964</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D216" t="n">
         <v>0.001</v>
@@ -8590,15 +7294,9 @@
         <v>10140000000000000000</v>
       </c>
       <c r="I216" t="n">
-        <v>10140000000000000</v>
+        <v>-425880000000000000</v>
       </c>
       <c r="J216" t="n">
-        <v>-425880000000000000</v>
-      </c>
-      <c r="K216" t="n">
-        <v>4134387996411.97</v>
-      </c>
-      <c r="L216" t="n">
         <v>-173644295849303</v>
       </c>
     </row>
@@ -8607,10 +7305,10 @@
         <v>1965</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D217" t="n">
         <v>0.001</v>
@@ -8628,15 +7326,9 @@
         <v>10150000000000000000</v>
       </c>
       <c r="I217" t="n">
-        <v>10150000000000000</v>
+        <v>-426300000000000000</v>
       </c>
       <c r="J217" t="n">
-        <v>-426300000000000000</v>
-      </c>
-      <c r="K217" t="n">
-        <v>4138465302128.35</v>
-      </c>
-      <c r="L217" t="n">
         <v>-173815542689391</v>
       </c>
     </row>
@@ -8645,10 +7337,10 @@
         <v>1966</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D218" t="n">
         <v>0.001</v>
@@ -8666,15 +7358,9 @@
         <v>10160000000000000000</v>
       </c>
       <c r="I218" t="n">
-        <v>10160000000000000</v>
+        <v>-426720000000000000</v>
       </c>
       <c r="J218" t="n">
-        <v>-426720000000000000</v>
-      </c>
-      <c r="K218" t="n">
-        <v>4142542607844.74</v>
-      </c>
-      <c r="L218" t="n">
         <v>-173986789529479</v>
       </c>
     </row>
@@ -8683,10 +7369,10 @@
         <v>1967</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D219" t="n">
         <v>0.001</v>
@@ -8704,15 +7390,9 @@
         <v>10170000000000000000</v>
       </c>
       <c r="I219" t="n">
-        <v>10170000000000000</v>
+        <v>-427140000000000000</v>
       </c>
       <c r="J219" t="n">
-        <v>-427140000000000000</v>
-      </c>
-      <c r="K219" t="n">
-        <v>4146619913561.12</v>
-      </c>
-      <c r="L219" t="n">
         <v>-174158036369567</v>
       </c>
     </row>
@@ -8721,10 +7401,10 @@
         <v>1968</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C220" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D220" t="n">
         <v>0.001</v>
@@ -8742,15 +7422,9 @@
         <v>10180000000000000000</v>
       </c>
       <c r="I220" t="n">
-        <v>10180000000000000</v>
+        <v>-427560000000000000</v>
       </c>
       <c r="J220" t="n">
-        <v>-427560000000000000</v>
-      </c>
-      <c r="K220" t="n">
-        <v>4150697219277.5</v>
-      </c>
-      <c r="L220" t="n">
         <v>-174329283209655</v>
       </c>
     </row>
@@ -8759,10 +7433,10 @@
         <v>1969</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D221" t="n">
         <v>0.001</v>
@@ -8780,15 +7454,9 @@
         <v>10190000000000000000</v>
       </c>
       <c r="I221" t="n">
-        <v>10190000000000000</v>
+        <v>-427980000000000000</v>
       </c>
       <c r="J221" t="n">
-        <v>-427980000000000000</v>
-      </c>
-      <c r="K221" t="n">
-        <v>4154774524993.88</v>
-      </c>
-      <c r="L221" t="n">
         <v>-174500530049743</v>
       </c>
     </row>
@@ -8797,10 +7465,10 @@
         <v>1970</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D222" t="n">
         <v>0.001</v>
@@ -8818,15 +7486,9 @@
         <v>10200000000000000000</v>
       </c>
       <c r="I222" t="n">
-        <v>10200000000000000</v>
+        <v>-428400000000000000</v>
       </c>
       <c r="J222" t="n">
-        <v>-428400000000000000</v>
-      </c>
-      <c r="K222" t="n">
-        <v>4158851830710.27</v>
-      </c>
-      <c r="L222" t="n">
         <v>-174671776889831</v>
       </c>
     </row>
@@ -8835,10 +7497,10 @@
         <v>1971</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D223" t="n">
         <v>0.001</v>
@@ -8856,15 +7518,9 @@
         <v>10210000000000000000</v>
       </c>
       <c r="I223" t="n">
-        <v>10210000000000000</v>
+        <v>-428820000000000000</v>
       </c>
       <c r="J223" t="n">
-        <v>-428820000000000000</v>
-      </c>
-      <c r="K223" t="n">
-        <v>4162929136426.65</v>
-      </c>
-      <c r="L223" t="n">
         <v>-174843023729919</v>
       </c>
     </row>
@@ -8873,10 +7529,10 @@
         <v>1972</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D224" t="n">
         <v>0.001</v>
@@ -8894,15 +7550,9 @@
         <v>10220000000000000000</v>
       </c>
       <c r="I224" t="n">
-        <v>10220000000000000</v>
+        <v>-429240000000000000</v>
       </c>
       <c r="J224" t="n">
-        <v>-429240000000000000</v>
-      </c>
-      <c r="K224" t="n">
-        <v>4167006442143.03</v>
-      </c>
-      <c r="L224" t="n">
         <v>-175014270570007</v>
       </c>
     </row>
@@ -8911,10 +7561,10 @@
         <v>1973</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D225" t="n">
         <v>0.001</v>
@@ -8932,15 +7582,9 @@
         <v>10230000000000000000</v>
       </c>
       <c r="I225" t="n">
-        <v>10230000000000000</v>
+        <v>-429660000000000000</v>
       </c>
       <c r="J225" t="n">
-        <v>-429660000000000000</v>
-      </c>
-      <c r="K225" t="n">
-        <v>4171083747859.41</v>
-      </c>
-      <c r="L225" t="n">
         <v>-175185517410095</v>
       </c>
     </row>
@@ -8949,10 +7593,10 @@
         <v>1974</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D226" t="n">
         <v>0.001</v>
@@ -8970,15 +7614,9 @@
         <v>10240000000000000000</v>
       </c>
       <c r="I226" t="n">
-        <v>10240000000000000</v>
+        <v>-430080000000000000</v>
       </c>
       <c r="J226" t="n">
-        <v>-430080000000000000</v>
-      </c>
-      <c r="K226" t="n">
-        <v>4175161053575.8</v>
-      </c>
-      <c r="L226" t="n">
         <v>-175356764250183</v>
       </c>
     </row>
@@ -8987,10 +7625,10 @@
         <v>1975</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D227" t="n">
         <v>0.001</v>
@@ -9008,15 +7646,9 @@
         <v>10250000000000000000</v>
       </c>
       <c r="I227" t="n">
-        <v>10250000000000000</v>
+        <v>-430500000000000000</v>
       </c>
       <c r="J227" t="n">
-        <v>-430500000000000000</v>
-      </c>
-      <c r="K227" t="n">
-        <v>4179238359292.18</v>
-      </c>
-      <c r="L227" t="n">
         <v>-175528011090272</v>
       </c>
     </row>
@@ -9025,10 +7657,10 @@
         <v>1976</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D228" t="n">
         <v>0.001</v>
@@ -9046,15 +7678,9 @@
         <v>10260000000000000000</v>
       </c>
       <c r="I228" t="n">
-        <v>10260000000000000</v>
+        <v>-430920000000000000</v>
       </c>
       <c r="J228" t="n">
-        <v>-430920000000000000</v>
-      </c>
-      <c r="K228" t="n">
-        <v>4183315665008.56</v>
-      </c>
-      <c r="L228" t="n">
         <v>-175699257930360</v>
       </c>
     </row>
@@ -9063,10 +7689,10 @@
         <v>1977</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D229" t="n">
         <v>0.001</v>
@@ -9084,15 +7710,9 @@
         <v>10270000000000000000</v>
       </c>
       <c r="I229" t="n">
-        <v>10270000000000000</v>
+        <v>-431340000000000000</v>
       </c>
       <c r="J229" t="n">
-        <v>-431340000000000000</v>
-      </c>
-      <c r="K229" t="n">
-        <v>4187392970724.94</v>
-      </c>
-      <c r="L229" t="n">
         <v>-175870504770448</v>
       </c>
     </row>
@@ -9101,10 +7721,10 @@
         <v>1978</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D230" t="n">
         <v>0.001</v>
@@ -9122,15 +7742,9 @@
         <v>10280000000000000000</v>
       </c>
       <c r="I230" t="n">
-        <v>10280000000000000</v>
+        <v>-431760000000000000</v>
       </c>
       <c r="J230" t="n">
-        <v>-431760000000000000</v>
-      </c>
-      <c r="K230" t="n">
-        <v>4191470276441.33</v>
-      </c>
-      <c r="L230" t="n">
         <v>-176041751610536</v>
       </c>
     </row>
@@ -9139,10 +7753,10 @@
         <v>1979</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D231" t="n">
         <v>0.001</v>
@@ -9160,15 +7774,9 @@
         <v>10290000000000000000</v>
       </c>
       <c r="I231" t="n">
-        <v>10290000000000000</v>
+        <v>-432180000000000000</v>
       </c>
       <c r="J231" t="n">
-        <v>-432180000000000000</v>
-      </c>
-      <c r="K231" t="n">
-        <v>4195547582157.71</v>
-      </c>
-      <c r="L231" t="n">
         <v>-176212998450624</v>
       </c>
     </row>
@@ -9177,10 +7785,10 @@
         <v>1980</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
         <v>0.001</v>
@@ -9198,15 +7806,9 @@
         <v>10300000000000000000</v>
       </c>
       <c r="I232" t="n">
-        <v>10300000000000000</v>
+        <v>-432600000000000000</v>
       </c>
       <c r="J232" t="n">
-        <v>-432600000000000000</v>
-      </c>
-      <c r="K232" t="n">
-        <v>4199624887874.09</v>
-      </c>
-      <c r="L232" t="n">
         <v>-176384245290712</v>
       </c>
     </row>
@@ -9215,10 +7817,10 @@
         <v>1981</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
         <v>0.001</v>
@@ -9236,15 +7838,9 @@
         <v>10310000000000000000</v>
       </c>
       <c r="I233" t="n">
-        <v>10310000000000000</v>
+        <v>-433020000000000000</v>
       </c>
       <c r="J233" t="n">
-        <v>-433020000000000000</v>
-      </c>
-      <c r="K233" t="n">
-        <v>4203702193590.48</v>
-      </c>
-      <c r="L233" t="n">
         <v>-176555492130800</v>
       </c>
     </row>
@@ -9253,10 +7849,10 @@
         <v>1982</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D234" t="n">
         <v>0.001</v>
@@ -9274,15 +7870,9 @@
         <v>10320000000000000000</v>
       </c>
       <c r="I234" t="n">
-        <v>10320000000000000</v>
+        <v>-433440000000000000</v>
       </c>
       <c r="J234" t="n">
-        <v>-433440000000000000</v>
-      </c>
-      <c r="K234" t="n">
-        <v>4207779499306.86</v>
-      </c>
-      <c r="L234" t="n">
         <v>-176726738970888</v>
       </c>
     </row>
@@ -9291,10 +7881,10 @@
         <v>1983</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D235" t="n">
         <v>0.001</v>
@@ -9312,15 +7902,9 @@
         <v>10330000000000000000</v>
       </c>
       <c r="I235" t="n">
-        <v>10330000000000000</v>
+        <v>-433860000000000000</v>
       </c>
       <c r="J235" t="n">
-        <v>-433860000000000000</v>
-      </c>
-      <c r="K235" t="n">
-        <v>4211856805023.24</v>
-      </c>
-      <c r="L235" t="n">
         <v>-176897985810976</v>
       </c>
     </row>
@@ -9329,10 +7913,10 @@
         <v>1984</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D236" t="n">
         <v>0.001</v>
@@ -9350,15 +7934,9 @@
         <v>10340000000000000000</v>
       </c>
       <c r="I236" t="n">
-        <v>10340000000000000</v>
+        <v>-434280000000000000</v>
       </c>
       <c r="J236" t="n">
-        <v>-434280000000000000</v>
-      </c>
-      <c r="K236" t="n">
-        <v>4215934110739.62</v>
-      </c>
-      <c r="L236" t="n">
         <v>-177069232651064</v>
       </c>
     </row>
@@ -9367,10 +7945,10 @@
         <v>1985</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D237" t="n">
         <v>0.001</v>
@@ -9388,15 +7966,9 @@
         <v>10350000000000000000</v>
       </c>
       <c r="I237" t="n">
-        <v>10350000000000000</v>
+        <v>-434700000000000000</v>
       </c>
       <c r="J237" t="n">
-        <v>-434700000000000000</v>
-      </c>
-      <c r="K237" t="n">
-        <v>4220011416456.01</v>
-      </c>
-      <c r="L237" t="n">
         <v>-177240479491152</v>
       </c>
     </row>
@@ -9405,10 +7977,10 @@
         <v>1986</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D238" t="n">
         <v>0.001</v>
@@ -9426,15 +7998,9 @@
         <v>10360000000000000000</v>
       </c>
       <c r="I238" t="n">
-        <v>10360000000000000</v>
+        <v>-435120000000000000</v>
       </c>
       <c r="J238" t="n">
-        <v>-435120000000000000</v>
-      </c>
-      <c r="K238" t="n">
-        <v>4224088722172.39</v>
-      </c>
-      <c r="L238" t="n">
         <v>-177411726331240</v>
       </c>
     </row>
@@ -9443,10 +8009,10 @@
         <v>1987</v>
       </c>
       <c r="B239" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D239" t="n">
         <v>0.001</v>
@@ -9464,15 +8030,9 @@
         <v>10370000000000000000</v>
       </c>
       <c r="I239" t="n">
-        <v>10370000000000000</v>
+        <v>-435540000000000000</v>
       </c>
       <c r="J239" t="n">
-        <v>-435540000000000000</v>
-      </c>
-      <c r="K239" t="n">
-        <v>4228166027888.77</v>
-      </c>
-      <c r="L239" t="n">
         <v>-177582973171328</v>
       </c>
     </row>
@@ -9481,10 +8041,10 @@
         <v>1988</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D240" t="n">
         <v>0.001</v>
@@ -9502,15 +8062,9 @@
         <v>10380000000000000000</v>
       </c>
       <c r="I240" t="n">
-        <v>10380000000000000</v>
+        <v>-435960000000000000</v>
       </c>
       <c r="J240" t="n">
-        <v>-435960000000000000</v>
-      </c>
-      <c r="K240" t="n">
-        <v>4232243333605.15</v>
-      </c>
-      <c r="L240" t="n">
         <v>-177754220011416</v>
       </c>
     </row>
@@ -9519,10 +8073,10 @@
         <v>1989</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D241" t="n">
         <v>0.001</v>
@@ -9540,15 +8094,9 @@
         <v>10390000000000000000</v>
       </c>
       <c r="I241" t="n">
-        <v>10390000000000000</v>
+        <v>-436380000000000000</v>
       </c>
       <c r="J241" t="n">
-        <v>-436380000000000000</v>
-      </c>
-      <c r="K241" t="n">
-        <v>4236320639321.54</v>
-      </c>
-      <c r="L241" t="n">
         <v>-177925466851505</v>
       </c>
     </row>
@@ -9557,10 +8105,10 @@
         <v>1990</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C242" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D242" t="n">
         <v>0.001</v>
@@ -9578,15 +8126,9 @@
         <v>10400000000000000000</v>
       </c>
       <c r="I242" t="n">
-        <v>10400000000000000</v>
+        <v>-436800000000000000</v>
       </c>
       <c r="J242" t="n">
-        <v>-436800000000000000</v>
-      </c>
-      <c r="K242" t="n">
-        <v>4240397945037.92</v>
-      </c>
-      <c r="L242" t="n">
         <v>-178096713691593</v>
       </c>
     </row>
@@ -9595,10 +8137,10 @@
         <v>1991</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D243" t="n">
         <v>0.001</v>
@@ -9616,15 +8158,9 @@
         <v>10410000000000000000</v>
       </c>
       <c r="I243" t="n">
-        <v>10410000000000000</v>
+        <v>-437220000000000000</v>
       </c>
       <c r="J243" t="n">
-        <v>-437220000000000000</v>
-      </c>
-      <c r="K243" t="n">
-        <v>4244475250754.3</v>
-      </c>
-      <c r="L243" t="n">
         <v>-178267960531681</v>
       </c>
     </row>
@@ -9633,10 +8169,10 @@
         <v>1992</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D244" t="n">
         <v>0.001</v>
@@ -9654,15 +8190,9 @@
         <v>10420000000000000000</v>
       </c>
       <c r="I244" t="n">
-        <v>10420000000000000</v>
+        <v>-437640000000000000</v>
       </c>
       <c r="J244" t="n">
-        <v>-437640000000000000</v>
-      </c>
-      <c r="K244" t="n">
-        <v>4248552556470.68</v>
-      </c>
-      <c r="L244" t="n">
         <v>-178439207371769</v>
       </c>
     </row>
@@ -9671,10 +8201,10 @@
         <v>1993</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D245" t="n">
         <v>0.001</v>
@@ -9692,15 +8222,9 @@
         <v>10430000000000000000</v>
       </c>
       <c r="I245" t="n">
-        <v>10430000000000000</v>
+        <v>-438060000000000000</v>
       </c>
       <c r="J245" t="n">
-        <v>-438060000000000000</v>
-      </c>
-      <c r="K245" t="n">
-        <v>4252629862187.07</v>
-      </c>
-      <c r="L245" t="n">
         <v>-178610454211857</v>
       </c>
     </row>
@@ -9709,10 +8233,10 @@
         <v>1994</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D246" t="n">
         <v>0.001</v>
@@ -9730,15 +8254,9 @@
         <v>10440000000000000000</v>
       </c>
       <c r="I246" t="n">
-        <v>10440000000000000</v>
+        <v>-438480000000000000</v>
       </c>
       <c r="J246" t="n">
-        <v>-438480000000000000</v>
-      </c>
-      <c r="K246" t="n">
-        <v>4256707167903.45</v>
-      </c>
-      <c r="L246" t="n">
         <v>-178781701051945</v>
       </c>
     </row>
@@ -9747,10 +8265,10 @@
         <v>1995</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D247" t="n">
         <v>0.001</v>
@@ -9768,15 +8286,9 @@
         <v>10450000000000000000</v>
       </c>
       <c r="I247" t="n">
-        <v>10450000000000000</v>
+        <v>-438900000000000000</v>
       </c>
       <c r="J247" t="n">
-        <v>-438900000000000000</v>
-      </c>
-      <c r="K247" t="n">
-        <v>4260784473619.83</v>
-      </c>
-      <c r="L247" t="n">
         <v>-178952947892033</v>
       </c>
     </row>
@@ -9785,10 +8297,10 @@
         <v>1996</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D248" t="n">
         <v>0.001</v>
@@ -9806,15 +8318,9 @@
         <v>10460000000000000000</v>
       </c>
       <c r="I248" t="n">
-        <v>10460000000000000</v>
+        <v>-439320000000000000</v>
       </c>
       <c r="J248" t="n">
-        <v>-439320000000000000</v>
-      </c>
-      <c r="K248" t="n">
-        <v>4264861779336.21</v>
-      </c>
-      <c r="L248" t="n">
         <v>-179124194732121</v>
       </c>
     </row>
@@ -9823,10 +8329,10 @@
         <v>1997</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D249" t="n">
         <v>0.001</v>
@@ -9844,15 +8350,9 @@
         <v>10470000000000000000</v>
       </c>
       <c r="I249" t="n">
-        <v>10470000000000000</v>
+        <v>-439740000000000000</v>
       </c>
       <c r="J249" t="n">
-        <v>-439740000000000000</v>
-      </c>
-      <c r="K249" t="n">
-        <v>4268939085052.6</v>
-      </c>
-      <c r="L249" t="n">
         <v>-179295441572209</v>
       </c>
     </row>
@@ -9861,10 +8361,10 @@
         <v>1998</v>
       </c>
       <c r="B250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D250" t="n">
         <v>0.001</v>
@@ -9882,15 +8382,9 @@
         <v>10480000000000000000</v>
       </c>
       <c r="I250" t="n">
-        <v>10480000000000000</v>
+        <v>-440160000000000000</v>
       </c>
       <c r="J250" t="n">
-        <v>-440160000000000000</v>
-      </c>
-      <c r="K250" t="n">
-        <v>4273016390768.98</v>
-      </c>
-      <c r="L250" t="n">
         <v>-179466688412297</v>
       </c>
     </row>
@@ -9899,10 +8393,10 @@
         <v>1999</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D251" t="n">
         <v>0.001</v>
@@ -9920,15 +8414,9 @@
         <v>10490000000000000000</v>
       </c>
       <c r="I251" t="n">
-        <v>10490000000000000</v>
+        <v>-440580000000000000</v>
       </c>
       <c r="J251" t="n">
-        <v>-440580000000000000</v>
-      </c>
-      <c r="K251" t="n">
-        <v>4277093696485.36</v>
-      </c>
-      <c r="L251" t="n">
         <v>-179637935252385</v>
       </c>
     </row>
@@ -9937,10 +8425,10 @@
         <v>2000</v>
       </c>
       <c r="B252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D252" t="n">
         <v>0.001</v>
@@ -9958,15 +8446,9 @@
         <v>10500000000000000000</v>
       </c>
       <c r="I252" t="n">
-        <v>10500000000000000</v>
+        <v>-441000000000000000</v>
       </c>
       <c r="J252" t="n">
-        <v>-441000000000000000</v>
-      </c>
-      <c r="K252" t="n">
-        <v>4281171002201.75</v>
-      </c>
-      <c r="L252" t="n">
         <v>-179809182092473</v>
       </c>
     </row>
@@ -9975,10 +8457,10 @@
         <v>2001</v>
       </c>
       <c r="B253" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D253" t="n">
         <v>0.001</v>
@@ -9996,15 +8478,9 @@
         <v>10510000000000000000</v>
       </c>
       <c r="I253" t="n">
-        <v>10510000000000000</v>
+        <v>-441420000000000000</v>
       </c>
       <c r="J253" t="n">
-        <v>-441420000000000000</v>
-      </c>
-      <c r="K253" t="n">
-        <v>4285248307918.13</v>
-      </c>
-      <c r="L253" t="n">
         <v>-179980428932561</v>
       </c>
     </row>
@@ -10013,10 +8489,10 @@
         <v>2002</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D254" t="n">
         <v>0.001</v>
@@ -10034,15 +8510,9 @@
         <v>10520000000000000000</v>
       </c>
       <c r="I254" t="n">
-        <v>10520000000000000</v>
+        <v>-441840000000000000</v>
       </c>
       <c r="J254" t="n">
-        <v>-441840000000000000</v>
-      </c>
-      <c r="K254" t="n">
-        <v>4289325613634.51</v>
-      </c>
-      <c r="L254" t="n">
         <v>-180151675772649</v>
       </c>
     </row>
@@ -10051,10 +8521,10 @@
         <v>2003</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D255" t="n">
         <v>0.001</v>
@@ -10072,15 +8542,9 @@
         <v>10530000000000000000</v>
       </c>
       <c r="I255" t="n">
-        <v>10530000000000000</v>
+        <v>-442260000000000000</v>
       </c>
       <c r="J255" t="n">
-        <v>-442260000000000000</v>
-      </c>
-      <c r="K255" t="n">
-        <v>4293402919350.89</v>
-      </c>
-      <c r="L255" t="n">
         <v>-180322922612738</v>
       </c>
     </row>
@@ -10089,10 +8553,10 @@
         <v>2004</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D256" t="n">
         <v>0.001</v>
@@ -10110,15 +8574,9 @@
         <v>10540000000000000000</v>
       </c>
       <c r="I256" t="n">
-        <v>10540000000000000</v>
+        <v>-442680000000000000</v>
       </c>
       <c r="J256" t="n">
-        <v>-442680000000000000</v>
-      </c>
-      <c r="K256" t="n">
-        <v>4297480225067.28</v>
-      </c>
-      <c r="L256" t="n">
         <v>-180494169452826</v>
       </c>
     </row>
@@ -10127,10 +8585,10 @@
         <v>2005</v>
       </c>
       <c r="B257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D257" t="n">
         <v>0.001</v>
@@ -10148,15 +8606,9 @@
         <v>10550000000000000000</v>
       </c>
       <c r="I257" t="n">
-        <v>10550000000000000</v>
+        <v>-443100000000000000</v>
       </c>
       <c r="J257" t="n">
-        <v>-443100000000000000</v>
-      </c>
-      <c r="K257" t="n">
-        <v>4301557530783.66</v>
-      </c>
-      <c r="L257" t="n">
         <v>-180665416292914</v>
       </c>
     </row>
@@ -10165,10 +8617,10 @@
         <v>2006</v>
       </c>
       <c r="B258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D258" t="n">
         <v>0.001</v>
@@ -10186,15 +8638,9 @@
         <v>10560000000000000000</v>
       </c>
       <c r="I258" t="n">
-        <v>10560000000000000</v>
+        <v>-443520000000000000</v>
       </c>
       <c r="J258" t="n">
-        <v>-443520000000000000</v>
-      </c>
-      <c r="K258" t="n">
-        <v>4305634836500.04</v>
-      </c>
-      <c r="L258" t="n">
         <v>-180836663133002</v>
       </c>
     </row>
@@ -10203,10 +8649,10 @@
         <v>2007</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D259" t="n">
         <v>0.001</v>
@@ -10224,15 +8670,9 @@
         <v>10570000000000000000</v>
       </c>
       <c r="I259" t="n">
-        <v>10570000000000000</v>
+        <v>-443940000000000000</v>
       </c>
       <c r="J259" t="n">
-        <v>-443940000000000000</v>
-      </c>
-      <c r="K259" t="n">
-        <v>4309712142216.42</v>
-      </c>
-      <c r="L259" t="n">
         <v>-181007909973090</v>
       </c>
     </row>
@@ -10241,10 +8681,10 @@
         <v>2008</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D260" t="n">
         <v>0.001</v>
@@ -10262,15 +8702,9 @@
         <v>10580000000000000000</v>
       </c>
       <c r="I260" t="n">
-        <v>10580000000000000</v>
+        <v>-444360000000000000</v>
       </c>
       <c r="J260" t="n">
-        <v>-444360000000000000</v>
-      </c>
-      <c r="K260" t="n">
-        <v>4313789447932.81</v>
-      </c>
-      <c r="L260" t="n">
         <v>-181179156813178</v>
       </c>
     </row>
@@ -10279,10 +8713,10 @@
         <v>2009</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D261" t="n">
         <v>0.001</v>
@@ -10300,15 +8734,9 @@
         <v>10590000000000000000</v>
       </c>
       <c r="I261" t="n">
-        <v>10590000000000000</v>
+        <v>-444780000000000000</v>
       </c>
       <c r="J261" t="n">
-        <v>-444780000000000000</v>
-      </c>
-      <c r="K261" t="n">
-        <v>4317866753649.19</v>
-      </c>
-      <c r="L261" t="n">
         <v>-181350403653266</v>
       </c>
     </row>
@@ -10317,10 +8745,10 @@
         <v>2010</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C262" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D262" t="n">
         <v>0.001</v>
@@ -10338,15 +8766,9 @@
         <v>10600000000000000000</v>
       </c>
       <c r="I262" t="n">
-        <v>10600000000000000</v>
+        <v>-445200000000000000</v>
       </c>
       <c r="J262" t="n">
-        <v>-445200000000000000</v>
-      </c>
-      <c r="K262" t="n">
-        <v>4321944059365.57</v>
-      </c>
-      <c r="L262" t="n">
         <v>-181521650493354</v>
       </c>
     </row>
@@ -10355,10 +8777,10 @@
         <v>2011</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D263" t="n">
         <v>0.001</v>
@@ -10376,15 +8798,9 @@
         <v>10610000000000000000</v>
       </c>
       <c r="I263" t="n">
-        <v>10610000000000000</v>
+        <v>-445620000000000000</v>
       </c>
       <c r="J263" t="n">
-        <v>-445620000000000000</v>
-      </c>
-      <c r="K263" t="n">
-        <v>4326021365081.95</v>
-      </c>
-      <c r="L263" t="n">
         <v>-181692897333442</v>
       </c>
     </row>
@@ -10393,10 +8809,10 @@
         <v>2012</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D264" t="n">
         <v>0.001</v>
@@ -10414,15 +8830,9 @@
         <v>10620000000000000000</v>
       </c>
       <c r="I264" t="n">
-        <v>10620000000000000</v>
+        <v>-446040000000000000</v>
       </c>
       <c r="J264" t="n">
-        <v>-446040000000000000</v>
-      </c>
-      <c r="K264" t="n">
-        <v>4330098670798.34</v>
-      </c>
-      <c r="L264" t="n">
         <v>-181864144173530</v>
       </c>
     </row>
@@ -10431,10 +8841,10 @@
         <v>2013</v>
       </c>
       <c r="B265" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D265" t="n">
         <v>0.001</v>
@@ -10452,15 +8862,9 @@
         <v>10630000000000000000</v>
       </c>
       <c r="I265" t="n">
-        <v>10630000000000000</v>
+        <v>-446460000000000000</v>
       </c>
       <c r="J265" t="n">
-        <v>-446460000000000000</v>
-      </c>
-      <c r="K265" t="n">
-        <v>4334175976514.72</v>
-      </c>
-      <c r="L265" t="n">
         <v>-182035391013618</v>
       </c>
     </row>
@@ -10469,10 +8873,10 @@
         <v>2014</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C266" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D266" t="n">
         <v>0.001</v>
@@ -10490,15 +8894,9 @@
         <v>10640000000000000000</v>
       </c>
       <c r="I266" t="n">
-        <v>10640000000000000</v>
+        <v>-446880000000000000</v>
       </c>
       <c r="J266" t="n">
-        <v>-446880000000000000</v>
-      </c>
-      <c r="K266" t="n">
-        <v>4338253282231.1</v>
-      </c>
-      <c r="L266" t="n">
         <v>-182206637853706</v>
       </c>
     </row>
@@ -10507,10 +8905,10 @@
         <v>2015</v>
       </c>
       <c r="B267" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D267" t="n">
         <v>0.001</v>
@@ -10528,15 +8926,9 @@
         <v>10650000000000000000</v>
       </c>
       <c r="I267" t="n">
-        <v>10650000000000000</v>
+        <v>-447300000000000000</v>
       </c>
       <c r="J267" t="n">
-        <v>-447300000000000000</v>
-      </c>
-      <c r="K267" t="n">
-        <v>4342330587947.48</v>
-      </c>
-      <c r="L267" t="n">
         <v>-182377884693794</v>
       </c>
     </row>
@@ -10545,10 +8937,10 @@
         <v>2016</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D268" t="n">
         <v>0.001</v>
@@ -10566,15 +8958,9 @@
         <v>10660000000000000000</v>
       </c>
       <c r="I268" t="n">
-        <v>10660000000000000</v>
+        <v>-447720000000000000</v>
       </c>
       <c r="J268" t="n">
-        <v>-447720000000000000</v>
-      </c>
-      <c r="K268" t="n">
-        <v>4346407893663.87</v>
-      </c>
-      <c r="L268" t="n">
         <v>-182549131533882</v>
       </c>
     </row>
@@ -10583,10 +8969,10 @@
         <v>2017</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C269" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D269" t="n">
         <v>0.001</v>
@@ -10604,15 +8990,9 @@
         <v>10670000000000000000</v>
       </c>
       <c r="I269" t="n">
-        <v>10670000000000000</v>
+        <v>-448140000000000000</v>
       </c>
       <c r="J269" t="n">
-        <v>-448140000000000000</v>
-      </c>
-      <c r="K269" t="n">
-        <v>4350485199380.25</v>
-      </c>
-      <c r="L269" t="n">
         <v>-182720378373970</v>
       </c>
     </row>
@@ -10621,10 +9001,10 @@
         <v>2018</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C270" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D270" t="n">
         <v>0.001</v>
@@ -10642,15 +9022,9 @@
         <v>10680000000000000000</v>
       </c>
       <c r="I270" t="n">
-        <v>10680000000000000</v>
+        <v>-448560000000000000</v>
       </c>
       <c r="J270" t="n">
-        <v>-448560000000000000</v>
-      </c>
-      <c r="K270" t="n">
-        <v>4354562505096.63</v>
-      </c>
-      <c r="L270" t="n">
         <v>-182891625214059</v>
       </c>
     </row>
@@ -10659,10 +9033,10 @@
         <v>2019</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C271" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D271" t="n">
         <v>0.001</v>
@@ -10680,15 +9054,9 @@
         <v>10690000000000000000</v>
       </c>
       <c r="I271" t="n">
-        <v>10690000000000000</v>
+        <v>-448980000000000000</v>
       </c>
       <c r="J271" t="n">
-        <v>-448980000000000000</v>
-      </c>
-      <c r="K271" t="n">
-        <v>4358639810813.01</v>
-      </c>
-      <c r="L271" t="n">
         <v>-183062872054147</v>
       </c>
     </row>
@@ -10697,10 +9065,10 @@
         <v>2020</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D272" t="n">
         <v>0.001</v>
@@ -10718,15 +9086,9 @@
         <v>10700000000000000000</v>
       </c>
       <c r="I272" t="n">
-        <v>10700000000000000</v>
+        <v>-449400000000000000</v>
       </c>
       <c r="J272" t="n">
-        <v>-449400000000000000</v>
-      </c>
-      <c r="K272" t="n">
-        <v>4362717116529.4</v>
-      </c>
-      <c r="L272" t="n">
         <v>-183234118894235</v>
       </c>
     </row>
@@ -10735,10 +9097,10 @@
         <v>2021</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C273" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D273" t="n">
         <v>0.001</v>
@@ -10756,15 +9118,9 @@
         <v>10710000000000000000</v>
       </c>
       <c r="I273" t="n">
-        <v>10710000000000000</v>
+        <v>-449820000000000000</v>
       </c>
       <c r="J273" t="n">
-        <v>-449820000000000000</v>
-      </c>
-      <c r="K273" t="n">
-        <v>4366794422245.78</v>
-      </c>
-      <c r="L273" t="n">
         <v>-183405365734323</v>
       </c>
     </row>
@@ -10773,10 +9129,10 @@
         <v>2022</v>
       </c>
       <c r="B274" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D274" t="n">
         <v>0.001</v>
@@ -10794,15 +9150,9 @@
         <v>10720000000000000000</v>
       </c>
       <c r="I274" t="n">
-        <v>10720000000000000</v>
+        <v>-450240000000000000</v>
       </c>
       <c r="J274" t="n">
-        <v>-450240000000000000</v>
-      </c>
-      <c r="K274" t="n">
-        <v>4370871727962.16</v>
-      </c>
-      <c r="L274" t="n">
         <v>-183576612574411</v>
       </c>
     </row>
@@ -10811,10 +9161,10 @@
         <v>2023</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D275" t="n">
         <v>0.001</v>
@@ -10832,15 +9182,9 @@
         <v>10730000000000000000</v>
       </c>
       <c r="I275" t="n">
-        <v>10730000000000000</v>
+        <v>-450660000000000000</v>
       </c>
       <c r="J275" t="n">
-        <v>-450660000000000000</v>
-      </c>
-      <c r="K275" t="n">
-        <v>4374949033678.54</v>
-      </c>
-      <c r="L275" t="n">
         <v>-183747859414499</v>
       </c>
     </row>
@@ -10849,10 +9193,10 @@
         <v>2024</v>
       </c>
       <c r="B276" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C276" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D276" t="n">
         <v>0.001</v>
@@ -10870,15 +9214,9 @@
         <v>10740000000000000000</v>
       </c>
       <c r="I276" t="n">
-        <v>10740000000000000</v>
+        <v>-451080000000000000</v>
       </c>
       <c r="J276" t="n">
-        <v>-451080000000000000</v>
-      </c>
-      <c r="K276" t="n">
-        <v>4379026339394.93</v>
-      </c>
-      <c r="L276" t="n">
         <v>-183919106254587</v>
       </c>
     </row>
@@ -10887,10 +9225,10 @@
         <v>2025</v>
       </c>
       <c r="B277" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C277" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D277" t="n">
         <v>0.001</v>
@@ -10908,15 +9246,9 @@
         <v>10750000000000000000</v>
       </c>
       <c r="I277" t="n">
-        <v>10750000000000000</v>
+        <v>-451500000000000000</v>
       </c>
       <c r="J277" t="n">
-        <v>-451500000000000000</v>
-      </c>
-      <c r="K277" t="n">
-        <v>4383103645111.31</v>
-      </c>
-      <c r="L277" t="n">
         <v>-184090353094675</v>
       </c>
     </row>
